--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall)_mer_an_6_deltagare.xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall)_mer_an_6_deltagare.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6D54CED-27B4-4202-A8C4-5DA86C05688C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FCA9F9-59BC-45E3-911C-EF976271DA04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="43080" yWindow="780" windowWidth="29040" windowHeight="17640" tabRatio="844" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -112,7 +112,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -596,16 +598,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="0.0"/>
-    <numFmt numFmtId="167" formatCode="0.000"/>
-    <numFmt numFmtId="168" formatCode="#,##0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.000"/>
-    <numFmt numFmtId="170" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="171" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ _k_r_-;\-* #,##0.00\ _k_r_-;_-* &quot;-&quot;??\ _k_r_-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
+    <numFmt numFmtId="169" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="170" formatCode="_-* #,##0.0_-;\-* #,##0.0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -769,6 +771,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="Verdana"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1140,16 +1147,16 @@
   </borders>
   <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="281">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1176,7 +1183,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1186,10 +1193,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1202,10 +1209,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="3" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1223,11 +1230,11 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1259,34 +1266,34 @@
     <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="14" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1299,7 +1306,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="169" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1324,36 +1331,36 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="3" applyFont="1"/>
-    <xf numFmtId="169" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="7" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="3" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="9" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1362,13 +1369,13 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="15" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="4" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1391,7 +1398,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="20" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="7" applyFont="1"/>
@@ -1437,35 +1444,35 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="7" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="7" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="9" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
@@ -1478,16 +1485,16 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="29" xfId="7" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="171" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="16" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="169" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1496,19 +1503,19 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1517,14 +1524,14 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1533,163 +1540,26 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1699,6 +1569,213 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1738,67 +1815,55 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1808,69 +1873,35 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Dezimal 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2731,9 +2762,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2748,10 +2779,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2765,10 +2796,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2797,30 +2828,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="272"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2835,93 +2866,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179" t="s">
+      <c r="G13" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="183"/>
+      <c r="I13" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="180"/>
-      <c r="K13" s="181"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="186"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="243" t="s">
+      <c r="C14" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="243"/>
-      <c r="E14" s="235" t="s">
+      <c r="D14" s="225"/>
+      <c r="E14" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="245"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="189">
+      <c r="F14" s="228"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196">
         <v>0.2</v>
       </c>
-      <c r="J14" s="192">
-        <v>0</v>
-      </c>
-      <c r="K14" s="194">
+      <c r="J14" s="199">
+        <v>0</v>
+      </c>
+      <c r="K14" s="201">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="242"/>
-      <c r="B15" s="243"/>
-      <c r="C15" s="243" t="s">
+      <c r="A15" s="223"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="243"/>
-      <c r="E15" s="246" t="s">
+      <c r="D15" s="225"/>
+      <c r="E15" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="194"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="231"/>
-      <c r="B16" s="244"/>
-      <c r="C16" s="244" t="s">
+      <c r="A16" s="224"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="246" t="s">
+      <c r="D16" s="226"/>
+      <c r="E16" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="247"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="195"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="230" t="s">
+      <c r="A17" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="233"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="235" t="s">
+      <c r="C17" s="232"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="236"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="171"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="206"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2935,18 +2966,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="231"/>
-      <c r="B18" s="237" t="s">
+      <c r="A18" s="224"/>
+      <c r="B18" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="240" t="s">
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="241"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="171"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="206"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2962,16 +2993,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="211"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3055,88 +3086,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="219" t="s">
+      <c r="A26" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="220"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="221"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="245"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="222"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="224"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="248"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="222"/>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="224"/>
+      <c r="A28" s="246"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="248"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="222"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
+      <c r="A29" s="246"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="248"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="225"/>
-      <c r="B30" s="226"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
+      <c r="A30" s="249"/>
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="250"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="252" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="228"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="266">
+      <c r="B32" s="252"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="274">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="266"/>
+      <c r="I32" s="274"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3146,20 +3177,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="228" t="s">
+      <c r="A33" s="252" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="228"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="229">
+      <c r="B33" s="252"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="253">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="267"/>
+      <c r="I33" s="275"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3181,14 +3212,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="216" t="s">
+      <c r="E35" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="217"/>
-      <c r="J35" s="218"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="241"/>
+      <c r="H35" s="241"/>
+      <c r="I35" s="241"/>
+      <c r="J35" s="242"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3243,26 +3274,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3279,6 +3290,26 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -3313,7 +3344,7 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A38" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A7" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J29" sqref="J29:J33"/>
     </sheetView>
   </sheetViews>
@@ -3356,8 +3387,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3372,9 +3403,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3396,83 +3427,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="213"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="204"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3502,11 +3533,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="206" t="s">
+      <c r="A15" s="176" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="207"/>
-      <c r="C15" s="208"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="178"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3519,11 +3550,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="200" t="s">
+      <c r="A16" s="173" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="201"/>
-      <c r="C16" s="202"/>
+      <c r="B16" s="174"/>
+      <c r="C16" s="175"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3536,11 +3567,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="200" t="s">
+      <c r="A17" s="173" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="201"/>
-      <c r="C17" s="202"/>
+      <c r="B17" s="174"/>
+      <c r="C17" s="175"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3553,11 +3584,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="209" t="s">
+      <c r="A18" s="179" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="210"/>
-      <c r="C18" s="211"/>
+      <c r="B18" s="180"/>
+      <c r="C18" s="181"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3570,11 +3601,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="200" t="s">
+      <c r="A19" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202"/>
+      <c r="B19" s="174"/>
+      <c r="C19" s="175"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3587,11 +3618,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="200" t="s">
+      <c r="A20" s="173" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="201"/>
-      <c r="C20" s="202"/>
+      <c r="B20" s="174"/>
+      <c r="C20" s="175"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3680,91 +3711,91 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="178"/>
-      <c r="I28" s="179" t="s">
+      <c r="G28" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="183"/>
+      <c r="I28" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="180"/>
-      <c r="K28" s="181"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="186"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="163" t="s">
+      <c r="A29" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="183" t="s">
+      <c r="B29" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C29" s="183" t="s">
+      <c r="C29" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D29" s="183"/>
-      <c r="E29" s="185" t="s">
+      <c r="D29" s="190"/>
+      <c r="E29" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F29" s="186"/>
-      <c r="G29" s="187"/>
-      <c r="H29" s="188"/>
-      <c r="I29" s="189">
+      <c r="F29" s="193"/>
+      <c r="G29" s="194"/>
+      <c r="H29" s="195"/>
+      <c r="I29" s="196">
         <v>0.2</v>
       </c>
-      <c r="J29" s="192"/>
-      <c r="K29" s="194">
+      <c r="J29" s="199"/>
+      <c r="K29" s="201">
         <f>J29*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="182"/>
-      <c r="B30" s="183"/>
-      <c r="C30" s="183" t="s">
+      <c r="A30" s="188"/>
+      <c r="B30" s="190"/>
+      <c r="C30" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="183"/>
-      <c r="E30" s="196" t="s">
+      <c r="D30" s="190"/>
+      <c r="E30" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="197"/>
-      <c r="G30" s="170"/>
-      <c r="H30" s="171"/>
-      <c r="I30" s="190"/>
-      <c r="J30" s="192"/>
-      <c r="K30" s="194"/>
+      <c r="F30" s="204"/>
+      <c r="G30" s="205"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="197"/>
+      <c r="J30" s="199"/>
+      <c r="K30" s="201"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="164"/>
-      <c r="B31" s="184"/>
-      <c r="C31" s="184" t="s">
+      <c r="A31" s="189"/>
+      <c r="B31" s="191"/>
+      <c r="C31" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D31" s="184"/>
-      <c r="E31" s="196" t="s">
+      <c r="D31" s="191"/>
+      <c r="E31" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="F31" s="197"/>
-      <c r="G31" s="198"/>
-      <c r="H31" s="199"/>
-      <c r="I31" s="191"/>
-      <c r="J31" s="193"/>
-      <c r="K31" s="195"/>
+      <c r="F31" s="204"/>
+      <c r="G31" s="207"/>
+      <c r="H31" s="208"/>
+      <c r="I31" s="198"/>
+      <c r="J31" s="200"/>
+      <c r="K31" s="202"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="163" t="s">
+      <c r="A32" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="165" t="s">
+      <c r="B32" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="166"/>
-      <c r="D32" s="167"/>
-      <c r="E32" s="168" t="s">
+      <c r="C32" s="213"/>
+      <c r="D32" s="214"/>
+      <c r="E32" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="169"/>
-      <c r="G32" s="170"/>
-      <c r="H32" s="171"/>
+      <c r="F32" s="216"/>
+      <c r="G32" s="205"/>
+      <c r="H32" s="206"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3775,18 +3806,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="164"/>
-      <c r="B33" s="172" t="s">
+      <c r="A33" s="189"/>
+      <c r="B33" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="173"/>
-      <c r="D33" s="174"/>
-      <c r="E33" s="175" t="s">
+      <c r="C33" s="218"/>
+      <c r="D33" s="219"/>
+      <c r="E33" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="176"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
+      <c r="F33" s="221"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="206"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3800,16 +3831,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="160" t="s">
+      <c r="B34" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="161"/>
-      <c r="D34" s="161"/>
-      <c r="E34" s="161"/>
-      <c r="F34" s="161"/>
-      <c r="G34" s="161"/>
-      <c r="H34" s="161"/>
-      <c r="I34" s="162"/>
+      <c r="C34" s="210"/>
+      <c r="D34" s="210"/>
+      <c r="E34" s="210"/>
+      <c r="F34" s="210"/>
+      <c r="G34" s="210"/>
+      <c r="H34" s="210"/>
+      <c r="I34" s="211"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3896,24 +3927,14 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3930,14 +3951,24 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
@@ -3967,8 +3998,8 @@
   </sheetPr>
   <dimension ref="A1:L47"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -4022,9 +4053,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4038,9 +4069,9 @@
         <v>12</v>
       </c>
       <c r="B6" s="159"/>
-      <c r="C6" s="156"/>
-      <c r="D6" s="156"/>
-      <c r="E6" s="156"/>
+      <c r="C6" s="167"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
       <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
@@ -4049,117 +4080,120 @@
       <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="213"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="159" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="159"/>
-      <c r="C8" s="156"/>
-      <c r="D8" s="156"/>
-      <c r="E8" s="156"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="167"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="157" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="157"/>
-      <c r="C9" s="158"/>
-      <c r="D9" s="158"/>
-      <c r="E9" s="158"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="159"/>
-      <c r="C10" s="156"/>
-      <c r="D10" s="156"/>
-      <c r="E10" s="156"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="159" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="159"/>
-      <c r="C11" s="156"/>
-      <c r="D11" s="156"/>
-      <c r="E11" s="156"/>
+      <c r="C11" s="167"/>
+      <c r="D11" s="167"/>
+      <c r="E11" s="167"/>
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="204"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
     </row>
     <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="G13" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="204"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="G14" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="204"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="G15" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="204"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
     </row>
     <row r="16" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -4174,93 +4208,93 @@
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="178"/>
-      <c r="I17" s="179" t="s">
+      <c r="G17" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="183"/>
+      <c r="I17" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="180"/>
-      <c r="K17" s="181"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="186"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="243"/>
-      <c r="E18" s="235" t="s">
+      <c r="D18" s="225"/>
+      <c r="E18" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="245"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="189">
+      <c r="F18" s="228"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196">
         <v>0.2</v>
       </c>
-      <c r="J18" s="192">
-        <v>0</v>
-      </c>
-      <c r="K18" s="194">
+      <c r="J18" s="199">
+        <v>0</v>
+      </c>
+      <c r="K18" s="201">
         <f>J18*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="242"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243" t="s">
+      <c r="A19" s="223"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="243"/>
-      <c r="E19" s="246" t="s">
+      <c r="D19" s="225"/>
+      <c r="E19" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="247"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="194"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="231"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="244" t="s">
+      <c r="A20" s="224"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="244"/>
-      <c r="E20" s="246" t="s">
+      <c r="D20" s="226"/>
+      <c r="E20" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="247"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="195"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="230" t="s">
+      <c r="A21" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="235" t="s">
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="236"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="206"/>
       <c r="I21" s="46">
         <v>0.4</v>
       </c>
@@ -4274,18 +4308,18 @@
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="231"/>
-      <c r="B22" s="237" t="s">
+      <c r="A22" s="224"/>
+      <c r="B22" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240" t="s">
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="241"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
+      <c r="F22" s="239"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="206"/>
       <c r="I22" s="46">
         <v>0.4</v>
       </c>
@@ -4301,16 +4335,16 @@
       <c r="A23" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="211"/>
       <c r="J23" s="47"/>
       <c r="K23" s="146">
         <v>0</v>
@@ -4385,7 +4419,7 @@
       <c r="H28" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="272" t="s">
+      <c r="I28" s="165" t="s">
         <v>85</v>
       </c>
       <c r="K28" s="35"/>
@@ -4436,88 +4470,88 @@
     </row>
     <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="244"/>
+      <c r="K32" s="245"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="222"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
+      <c r="A33" s="246"/>
+      <c r="B33" s="247"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="247"/>
+      <c r="K33" s="248"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="222"/>
-      <c r="B34" s="223"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="224"/>
+      <c r="A34" s="246"/>
+      <c r="B34" s="247"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="247"/>
+      <c r="J34" s="247"/>
+      <c r="K34" s="248"/>
     </row>
     <row r="35" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="222"/>
-      <c r="B35" s="223"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="224"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="247"/>
+      <c r="C35" s="247"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="247"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="247"/>
+      <c r="H35" s="247"/>
+      <c r="I35" s="247"/>
+      <c r="J35" s="247"/>
+      <c r="K35" s="248"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="225"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="226"/>
-      <c r="J36" s="226"/>
-      <c r="K36" s="227"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
+      <c r="H36" s="250"/>
+      <c r="I36" s="250"/>
+      <c r="J36" s="250"/>
+      <c r="K36" s="251"/>
     </row>
     <row r="37" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="228" t="s">
+      <c r="A38" s="252" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="228"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="228"/>
-      <c r="F38" s="228"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="229">
+      <c r="B38" s="252"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="252"/>
+      <c r="H38" s="253">
         <f>K30</f>
         <v>0</v>
       </c>
-      <c r="I38" s="229"/>
+      <c r="I38" s="253"/>
       <c r="J38" s="33" t="s">
         <v>46</v>
       </c>
@@ -4527,20 +4561,20 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="228" t="s">
+      <c r="A39" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="228"/>
-      <c r="C39" s="228"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="229">
+      <c r="B39" s="252"/>
+      <c r="C39" s="252"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
+      <c r="H39" s="253">
         <f>K24</f>
         <v>0</v>
       </c>
-      <c r="I39" s="229"/>
+      <c r="I39" s="253"/>
       <c r="J39" s="52" t="s">
         <v>62</v>
       </c>
@@ -4562,14 +4596,14 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="216" t="s">
+      <c r="E41" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="218"/>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="242"/>
       <c r="K41" s="53">
         <f>K40/4</f>
         <v>0</v>
@@ -4627,16 +4661,28 @@
       <c r="K47" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+  <mergeCells count="46">
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="A32:K36"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="A18:A20"/>
@@ -4653,20 +4699,15 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="A32:K36"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
   </mergeCells>
   <conditionalFormatting sqref="H39:I39 K18:K44">
     <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
@@ -4747,9 +4788,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="215"/>
-      <c r="D4" s="215"/>
-      <c r="E4" s="215"/>
+      <c r="C4" s="170"/>
+      <c r="D4" s="170"/>
+      <c r="E4" s="170"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4764,10 +4805,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
-      <c r="F5" s="203"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
+      <c r="F5" s="167"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4789,87 +4830,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
-      <c r="F7" s="203"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
+      <c r="F7" s="167"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="213"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
-      <c r="L7" s="214"/>
+      <c r="I7" s="168"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
+      <c r="L7" s="169"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
-      <c r="F8" s="215"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
+      <c r="F8" s="170"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="204"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
-      <c r="L8" s="205"/>
+      <c r="I8" s="171"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
+      <c r="L8" s="172"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
-      <c r="F9" s="203"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
+      <c r="F9" s="167"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="204"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
-      <c r="L9" s="205"/>
+      <c r="I9" s="171"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
-      <c r="F10" s="203"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="167"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="204"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
-      <c r="L10" s="205"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
+      <c r="L10" s="172"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="204"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
-      <c r="L11" s="205"/>
+      <c r="I11" s="171"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
+      <c r="L11" s="172"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="204"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
-      <c r="L12" s="205"/>
+      <c r="I12" s="171"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4885,95 +4926,95 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="178"/>
-      <c r="J14" s="179" t="s">
+      <c r="H14" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="183"/>
+      <c r="J14" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="180"/>
-      <c r="L14" s="181"/>
+      <c r="K14" s="185"/>
+      <c r="L14" s="186"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="230" t="s">
+      <c r="A15" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="243" t="s">
+      <c r="B15" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="243" t="s">
+      <c r="C15" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="243"/>
-      <c r="E15" s="243"/>
-      <c r="F15" s="235" t="s">
+      <c r="D15" s="225"/>
+      <c r="E15" s="225"/>
+      <c r="F15" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="245"/>
-      <c r="H15" s="187"/>
-      <c r="I15" s="188"/>
-      <c r="J15" s="189">
+      <c r="G15" s="228"/>
+      <c r="H15" s="194"/>
+      <c r="I15" s="195"/>
+      <c r="J15" s="196">
         <v>0.2</v>
       </c>
-      <c r="K15" s="192"/>
-      <c r="L15" s="194">
+      <c r="K15" s="199"/>
+      <c r="L15" s="201">
         <f>K15*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="242"/>
-      <c r="B16" s="243"/>
-      <c r="C16" s="243" t="s">
+      <c r="A16" s="223"/>
+      <c r="B16" s="225"/>
+      <c r="C16" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="243"/>
-      <c r="E16" s="243"/>
-      <c r="F16" s="246" t="s">
+      <c r="D16" s="225"/>
+      <c r="E16" s="225"/>
+      <c r="F16" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="247"/>
-      <c r="H16" s="170"/>
-      <c r="I16" s="171"/>
-      <c r="J16" s="190"/>
-      <c r="K16" s="192"/>
-      <c r="L16" s="194"/>
+      <c r="G16" s="230"/>
+      <c r="H16" s="205"/>
+      <c r="I16" s="206"/>
+      <c r="J16" s="197"/>
+      <c r="K16" s="199"/>
+      <c r="L16" s="201"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="244"/>
-      <c r="C17" s="244" t="s">
+      <c r="A17" s="224"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="244"/>
-      <c r="E17" s="244"/>
-      <c r="F17" s="246" t="s">
+      <c r="D17" s="226"/>
+      <c r="E17" s="226"/>
+      <c r="F17" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="247"/>
-      <c r="H17" s="198"/>
-      <c r="I17" s="199"/>
-      <c r="J17" s="191"/>
-      <c r="K17" s="193"/>
-      <c r="L17" s="195"/>
+      <c r="G17" s="230"/>
+      <c r="H17" s="207"/>
+      <c r="I17" s="208"/>
+      <c r="J17" s="198"/>
+      <c r="K17" s="200"/>
+      <c r="L17" s="202"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="232" t="s">
+      <c r="B18" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="233"/>
-      <c r="D18" s="233"/>
-      <c r="E18" s="234"/>
-      <c r="F18" s="235" t="s">
+      <c r="C18" s="232"/>
+      <c r="D18" s="232"/>
+      <c r="E18" s="233"/>
+      <c r="F18" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="236"/>
-      <c r="H18" s="170"/>
-      <c r="I18" s="171"/>
+      <c r="G18" s="234"/>
+      <c r="H18" s="205"/>
+      <c r="I18" s="206"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -4985,19 +5026,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="231"/>
-      <c r="B19" s="237" t="s">
+      <c r="A19" s="224"/>
+      <c r="B19" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="238"/>
-      <c r="D19" s="238"/>
-      <c r="E19" s="239"/>
-      <c r="F19" s="240" t="s">
+      <c r="C19" s="236"/>
+      <c r="D19" s="236"/>
+      <c r="E19" s="237"/>
+      <c r="F19" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="241"/>
-      <c r="H19" s="170"/>
-      <c r="I19" s="171"/>
+      <c r="G19" s="239"/>
+      <c r="H19" s="205"/>
+      <c r="I19" s="206"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -5011,17 +5052,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="160" t="s">
+      <c r="B20" s="209" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="161"/>
-      <c r="D20" s="161"/>
-      <c r="E20" s="161"/>
-      <c r="F20" s="161"/>
-      <c r="G20" s="161"/>
-      <c r="H20" s="161"/>
-      <c r="I20" s="161"/>
-      <c r="J20" s="162"/>
+      <c r="C20" s="210"/>
+      <c r="D20" s="210"/>
+      <c r="E20" s="210"/>
+      <c r="F20" s="210"/>
+      <c r="G20" s="210"/>
+      <c r="H20" s="210"/>
+      <c r="I20" s="210"/>
+      <c r="J20" s="211"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -5039,90 +5080,90 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="219" t="s">
+      <c r="A23" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="220"/>
-      <c r="C23" s="220"/>
-      <c r="D23" s="220"/>
-      <c r="E23" s="220"/>
-      <c r="F23" s="220"/>
-      <c r="G23" s="220"/>
-      <c r="H23" s="220"/>
-      <c r="I23" s="220"/>
-      <c r="J23" s="220"/>
-      <c r="K23" s="220"/>
-      <c r="L23" s="221"/>
+      <c r="B23" s="244"/>
+      <c r="C23" s="244"/>
+      <c r="D23" s="244"/>
+      <c r="E23" s="244"/>
+      <c r="F23" s="244"/>
+      <c r="G23" s="244"/>
+      <c r="H23" s="244"/>
+      <c r="I23" s="244"/>
+      <c r="J23" s="244"/>
+      <c r="K23" s="244"/>
+      <c r="L23" s="245"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="222"/>
-      <c r="B24" s="223"/>
-      <c r="C24" s="223"/>
-      <c r="D24" s="223"/>
-      <c r="E24" s="223"/>
-      <c r="F24" s="223"/>
-      <c r="G24" s="223"/>
-      <c r="H24" s="223"/>
-      <c r="I24" s="223"/>
-      <c r="J24" s="223"/>
-      <c r="K24" s="223"/>
-      <c r="L24" s="224"/>
+      <c r="A24" s="246"/>
+      <c r="B24" s="247"/>
+      <c r="C24" s="247"/>
+      <c r="D24" s="247"/>
+      <c r="E24" s="247"/>
+      <c r="F24" s="247"/>
+      <c r="G24" s="247"/>
+      <c r="H24" s="247"/>
+      <c r="I24" s="247"/>
+      <c r="J24" s="247"/>
+      <c r="K24" s="247"/>
+      <c r="L24" s="248"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="222"/>
-      <c r="B25" s="223"/>
-      <c r="C25" s="223"/>
-      <c r="D25" s="223"/>
-      <c r="E25" s="223"/>
-      <c r="F25" s="223"/>
-      <c r="G25" s="223"/>
-      <c r="H25" s="223"/>
-      <c r="I25" s="223"/>
-      <c r="J25" s="223"/>
-      <c r="K25" s="223"/>
-      <c r="L25" s="224"/>
+      <c r="A25" s="246"/>
+      <c r="B25" s="247"/>
+      <c r="C25" s="247"/>
+      <c r="D25" s="247"/>
+      <c r="E25" s="247"/>
+      <c r="F25" s="247"/>
+      <c r="G25" s="247"/>
+      <c r="H25" s="247"/>
+      <c r="I25" s="247"/>
+      <c r="J25" s="247"/>
+      <c r="K25" s="247"/>
+      <c r="L25" s="248"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="222"/>
-      <c r="B26" s="223"/>
-      <c r="C26" s="223"/>
-      <c r="D26" s="223"/>
-      <c r="E26" s="223"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="223"/>
-      <c r="H26" s="223"/>
-      <c r="I26" s="223"/>
-      <c r="J26" s="223"/>
-      <c r="K26" s="223"/>
-      <c r="L26" s="224"/>
+      <c r="A26" s="246"/>
+      <c r="B26" s="247"/>
+      <c r="C26" s="247"/>
+      <c r="D26" s="247"/>
+      <c r="E26" s="247"/>
+      <c r="F26" s="247"/>
+      <c r="G26" s="247"/>
+      <c r="H26" s="247"/>
+      <c r="I26" s="247"/>
+      <c r="J26" s="247"/>
+      <c r="K26" s="247"/>
+      <c r="L26" s="248"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="225"/>
-      <c r="B27" s="226"/>
-      <c r="C27" s="226"/>
-      <c r="D27" s="226"/>
-      <c r="E27" s="226"/>
-      <c r="F27" s="226"/>
-      <c r="G27" s="226"/>
-      <c r="H27" s="226"/>
-      <c r="I27" s="226"/>
-      <c r="J27" s="226"/>
-      <c r="K27" s="226"/>
-      <c r="L27" s="227"/>
+      <c r="A27" s="249"/>
+      <c r="B27" s="250"/>
+      <c r="C27" s="250"/>
+      <c r="D27" s="250"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="250"/>
+      <c r="G27" s="250"/>
+      <c r="H27" s="250"/>
+      <c r="I27" s="250"/>
+      <c r="J27" s="250"/>
+      <c r="K27" s="250"/>
+      <c r="L27" s="251"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="228" t="s">
+      <c r="A29" s="252" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="228"/>
-      <c r="C29" s="228"/>
-      <c r="D29" s="228"/>
-      <c r="E29" s="228"/>
-      <c r="F29" s="228"/>
-      <c r="G29" s="228"/>
-      <c r="H29" s="228"/>
-      <c r="I29" s="248"/>
-      <c r="J29" s="248"/>
+      <c r="B29" s="252"/>
+      <c r="C29" s="252"/>
+      <c r="D29" s="252"/>
+      <c r="E29" s="252"/>
+      <c r="F29" s="252"/>
+      <c r="G29" s="252"/>
+      <c r="H29" s="252"/>
+      <c r="I29" s="254"/>
+      <c r="J29" s="254"/>
       <c r="K29" s="140" t="s">
         <v>45</v>
       </c>
@@ -5132,18 +5173,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="228" t="s">
+      <c r="A30" s="252" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="228"/>
-      <c r="C30" s="228"/>
-      <c r="D30" s="228"/>
-      <c r="E30" s="228"/>
-      <c r="F30" s="228"/>
-      <c r="G30" s="228"/>
-      <c r="H30" s="228"/>
-      <c r="I30" s="248"/>
-      <c r="J30" s="248"/>
+      <c r="B30" s="252"/>
+      <c r="C30" s="252"/>
+      <c r="D30" s="252"/>
+      <c r="E30" s="252"/>
+      <c r="F30" s="252"/>
+      <c r="G30" s="252"/>
+      <c r="H30" s="252"/>
+      <c r="I30" s="254"/>
+      <c r="J30" s="254"/>
       <c r="K30" s="42" t="s">
         <v>45</v>
       </c>
@@ -5153,18 +5194,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="228" t="s">
+      <c r="A31" s="252" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="228"/>
-      <c r="C31" s="228"/>
-      <c r="D31" s="228"/>
-      <c r="E31" s="228"/>
-      <c r="F31" s="228"/>
-      <c r="G31" s="228"/>
-      <c r="H31" s="228"/>
-      <c r="I31" s="248"/>
-      <c r="J31" s="248"/>
+      <c r="B31" s="252"/>
+      <c r="C31" s="252"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="252"/>
+      <c r="G31" s="252"/>
+      <c r="H31" s="252"/>
+      <c r="I31" s="254"/>
+      <c r="J31" s="254"/>
       <c r="K31" s="42" t="s">
         <v>100</v>
       </c>
@@ -5174,18 +5215,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="252" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="228"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="228"/>
-      <c r="I32" s="248"/>
-      <c r="J32" s="248"/>
+      <c r="B32" s="252"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="252"/>
+      <c r="I32" s="254"/>
+      <c r="J32" s="254"/>
       <c r="K32" s="42" t="s">
         <v>47</v>
       </c>
@@ -5195,21 +5236,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="228" t="s">
+      <c r="A33" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="228"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="228"/>
-      <c r="I33" s="229">
+      <c r="B33" s="252"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="252"/>
+      <c r="I33" s="253">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="229"/>
+      <c r="J33" s="253"/>
       <c r="K33" s="42" t="s">
         <v>100</v>
       </c>
@@ -5231,14 +5272,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="216" t="s">
+      <c r="F35" s="240" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="217"/>
-      <c r="J35" s="217"/>
-      <c r="K35" s="218"/>
+      <c r="G35" s="241"/>
+      <c r="H35" s="241"/>
+      <c r="I35" s="241"/>
+      <c r="J35" s="241"/>
+      <c r="K35" s="242"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5329,26 +5370,18 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5365,18 +5398,26 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
@@ -5409,10 +5450,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L50"/>
+  <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15:K15"/>
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -5454,8 +5495,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5470,9 +5511,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="203"/>
-      <c r="D5" s="203"/>
-      <c r="E5" s="203"/>
+      <c r="C5" s="167"/>
+      <c r="D5" s="167"/>
+      <c r="E5" s="167"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5494,247 +5535,268 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="203"/>
-      <c r="E7" s="203"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="167"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="213"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="215"/>
-      <c r="D8" s="215"/>
-      <c r="E8" s="215"/>
+      <c r="C8" s="170"/>
+      <c r="D8" s="170"/>
+      <c r="E8" s="170"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="203"/>
-      <c r="D9" s="203"/>
-      <c r="E9" s="203"/>
+      <c r="C9" s="167"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="167"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="203"/>
-      <c r="D10" s="203"/>
-      <c r="E10" s="203"/>
+      <c r="C10" s="167"/>
+      <c r="D10" s="167"/>
+      <c r="E10" s="167"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="204"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
     </row>
     <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="G13" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="204"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="G14" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="204"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="G15" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="204"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
     </row>
-    <row r="17" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D17" s="42">
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="164">
         <v>1</v>
       </c>
-      <c r="E17" s="42">
+      <c r="D17" s="164">
         <v>2</v>
       </c>
-      <c r="F17" s="42">
+      <c r="E17" s="164">
         <v>3</v>
       </c>
-      <c r="G17" s="42">
+      <c r="F17" s="164">
         <v>4</v>
       </c>
+      <c r="G17" s="164">
+        <v>5</v>
+      </c>
       <c r="H17" s="42">
-        <v>5</v>
-      </c>
-      <c r="I17" s="42">
         <v>6</v>
       </c>
-      <c r="J17" s="42" t="s">
+      <c r="I17" s="164">
+        <v>7</v>
+      </c>
+      <c r="J17" s="164">
+        <v>8</v>
+      </c>
+      <c r="K17" s="164">
+        <v>9</v>
+      </c>
+      <c r="M17" s="42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="206" t="s">
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="162" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="207"/>
-      <c r="C18" s="208"/>
+      <c r="B18" s="163"/>
+      <c r="C18" s="141"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
       <c r="G18" s="141"/>
       <c r="H18" s="141"/>
       <c r="I18" s="141"/>
-      <c r="J18" s="12">
-        <f t="shared" ref="J18:J23" si="0">SUM(D18:I18)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="200" t="s">
+      <c r="J18" s="141"/>
+      <c r="K18" s="141"/>
+      <c r="M18" s="12">
+        <f>SUM(C18:K18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="280" t="s">
         <v>33</v>
       </c>
-      <c r="B19" s="201"/>
-      <c r="C19" s="202"/>
+      <c r="B19" s="161"/>
+      <c r="C19" s="141"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
       <c r="G19" s="141"/>
       <c r="H19" s="141"/>
       <c r="I19" s="141"/>
-      <c r="J19" s="12">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="200" t="s">
+      <c r="J19" s="141"/>
+      <c r="K19" s="141"/>
+      <c r="M19" s="12">
+        <f t="shared" ref="M19:M23" si="0">SUM(C19:K19)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="160" t="s">
         <v>34</v>
       </c>
-      <c r="B20" s="201"/>
-      <c r="C20" s="202"/>
+      <c r="B20" s="161"/>
+      <c r="C20" s="141"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
       <c r="G20" s="141"/>
       <c r="H20" s="141"/>
       <c r="I20" s="141"/>
-      <c r="J20" s="12">
+      <c r="J20" s="141"/>
+      <c r="K20" s="141"/>
+      <c r="M20" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="209" t="s">
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="278" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="210"/>
-      <c r="C21" s="211"/>
+      <c r="B21" s="279"/>
+      <c r="C21" s="141"/>
       <c r="D21" s="141"/>
       <c r="E21" s="141"/>
       <c r="F21" s="141"/>
       <c r="G21" s="141"/>
       <c r="H21" s="141"/>
       <c r="I21" s="141"/>
-      <c r="J21" s="12">
+      <c r="J21" s="141"/>
+      <c r="K21" s="141"/>
+      <c r="M21" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="200" t="s">
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="160" t="s">
         <v>35</v>
       </c>
-      <c r="B22" s="201"/>
-      <c r="C22" s="202"/>
+      <c r="B22" s="161"/>
+      <c r="C22" s="141"/>
       <c r="D22" s="141"/>
       <c r="E22" s="141"/>
       <c r="F22" s="141"/>
       <c r="G22" s="141"/>
       <c r="H22" s="141"/>
       <c r="I22" s="141"/>
-      <c r="J22" s="12">
+      <c r="J22" s="141"/>
+      <c r="K22" s="141"/>
+      <c r="M22" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="200" t="s">
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="160" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="201"/>
-      <c r="C23" s="202"/>
+      <c r="B23" s="161"/>
+      <c r="C23" s="141"/>
       <c r="D23" s="141"/>
       <c r="E23" s="141"/>
       <c r="F23" s="141"/>
       <c r="G23" s="141"/>
       <c r="H23" s="141"/>
       <c r="I23" s="141"/>
-      <c r="J23" s="12">
+      <c r="J23" s="141"/>
+      <c r="K23" s="141"/>
+      <c r="M23" s="12">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="J24" s="29"/>
     </row>
-    <row r="25" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="13" t="s">
         <v>0</v>
       </c>
@@ -5747,11 +5809,11 @@
         <v>26</v>
       </c>
       <c r="J25" s="12">
-        <f>SUM(J18:J23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+        <f>SUM(M18:M23)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="15"/>
       <c r="E26" s="16"/>
       <c r="G26" s="17" t="s">
@@ -5766,7 +5828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="20"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -5775,12 +5837,12 @@
       <c r="F27" s="15"/>
       <c r="J27" s="19"/>
     </row>
-    <row r="28" spans="1:11" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:13" ht="12.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="J28" s="17" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:13" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G29" s="21" t="s">
         <v>27</v>
       </c>
@@ -5791,7 +5853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E30" s="31"/>
       <c r="G30" s="30"/>
       <c r="H30" s="30"/>
@@ -5799,7 +5861,7 @@
       <c r="J30" s="17"/>
       <c r="K30" s="25"/>
     </row>
-    <row r="31" spans="1:11" ht="13.9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="13.9" x14ac:dyDescent="0.3">
       <c r="A31" s="44" t="s">
         <v>3</v>
       </c>
@@ -5808,91 +5870,91 @@
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
-      <c r="G31" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="178"/>
-      <c r="I31" s="179" t="s">
+      <c r="G31" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="183"/>
+      <c r="I31" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="180"/>
-      <c r="K31" s="181"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="163" t="s">
+      <c r="J31" s="185"/>
+      <c r="K31" s="186"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="B32" s="183" t="s">
+      <c r="B32" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C32" s="183" t="s">
+      <c r="C32" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D32" s="183"/>
-      <c r="E32" s="185" t="s">
+      <c r="D32" s="190"/>
+      <c r="E32" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F32" s="186"/>
-      <c r="G32" s="187"/>
-      <c r="H32" s="188"/>
-      <c r="I32" s="189">
+      <c r="F32" s="193"/>
+      <c r="G32" s="194"/>
+      <c r="H32" s="195"/>
+      <c r="I32" s="196">
         <v>0.2</v>
       </c>
-      <c r="J32" s="192"/>
-      <c r="K32" s="194">
+      <c r="J32" s="199"/>
+      <c r="K32" s="201">
         <f>J32*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="182"/>
-      <c r="B33" s="183"/>
-      <c r="C33" s="183" t="s">
+      <c r="A33" s="188"/>
+      <c r="B33" s="190"/>
+      <c r="C33" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D33" s="183"/>
-      <c r="E33" s="196" t="s">
+      <c r="D33" s="190"/>
+      <c r="E33" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="197"/>
-      <c r="G33" s="170"/>
-      <c r="H33" s="171"/>
-      <c r="I33" s="190"/>
-      <c r="J33" s="192"/>
-      <c r="K33" s="194"/>
+      <c r="F33" s="204"/>
+      <c r="G33" s="205"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="199"/>
+      <c r="K33" s="201"/>
     </row>
     <row r="34" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="164"/>
-      <c r="B34" s="184"/>
-      <c r="C34" s="184" t="s">
+      <c r="A34" s="189"/>
+      <c r="B34" s="191"/>
+      <c r="C34" s="191" t="s">
         <v>6</v>
       </c>
-      <c r="D34" s="184"/>
-      <c r="E34" s="196" t="s">
+      <c r="D34" s="191"/>
+      <c r="E34" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="197"/>
-      <c r="G34" s="198"/>
-      <c r="H34" s="199"/>
-      <c r="I34" s="191"/>
-      <c r="J34" s="193"/>
-      <c r="K34" s="195"/>
+      <c r="F34" s="204"/>
+      <c r="G34" s="207"/>
+      <c r="H34" s="208"/>
+      <c r="I34" s="198"/>
+      <c r="J34" s="200"/>
+      <c r="K34" s="202"/>
     </row>
     <row r="35" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="163" t="s">
+      <c r="A35" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="165" t="s">
+      <c r="B35" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="166"/>
-      <c r="D35" s="167"/>
-      <c r="E35" s="168" t="s">
+      <c r="C35" s="213"/>
+      <c r="D35" s="214"/>
+      <c r="E35" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="169"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="171"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="205"/>
+      <c r="H35" s="206"/>
       <c r="I35" s="46">
         <v>0.4</v>
       </c>
@@ -5903,18 +5965,18 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="164"/>
-      <c r="B36" s="172" t="s">
+      <c r="A36" s="189"/>
+      <c r="B36" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="173"/>
-      <c r="D36" s="174"/>
-      <c r="E36" s="175" t="s">
+      <c r="C36" s="218"/>
+      <c r="D36" s="219"/>
+      <c r="E36" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="176"/>
-      <c r="G36" s="170"/>
-      <c r="H36" s="171"/>
+      <c r="F36" s="221"/>
+      <c r="G36" s="205"/>
+      <c r="H36" s="206"/>
       <c r="I36" s="46">
         <v>0.4</v>
       </c>
@@ -5928,16 +5990,16 @@
       <c r="A37" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="160" t="s">
+      <c r="B37" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="161"/>
-      <c r="D37" s="161"/>
-      <c r="E37" s="161"/>
-      <c r="F37" s="161"/>
-      <c r="G37" s="161"/>
-      <c r="H37" s="161"/>
-      <c r="I37" s="162"/>
+      <c r="C37" s="210"/>
+      <c r="D37" s="210"/>
+      <c r="E37" s="210"/>
+      <c r="F37" s="210"/>
+      <c r="G37" s="210"/>
+      <c r="H37" s="210"/>
+      <c r="I37" s="211"/>
       <c r="J37" s="55"/>
       <c r="K37" s="152">
         <f>J37</f>
@@ -6023,7 +6085,31 @@
     <row r="49" ht="12" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="45">
+  <mergeCells count="40">
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="G31:H31"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="J32:J34"/>
+    <mergeCell ref="K32:K34"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="G34:H34"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="B37:I37"/>
     <mergeCell ref="A35:A36"/>
@@ -6040,35 +6126,6 @@
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="G32:H32"/>
     <mergeCell ref="I32:I34"/>
-    <mergeCell ref="J32:J34"/>
-    <mergeCell ref="K32:K34"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="G34:H34"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="K32:K40">
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
@@ -6103,8 +6160,8 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -6158,9 +6215,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="157"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
+      <c r="C5" s="170"/>
+      <c r="D5" s="170"/>
+      <c r="E5" s="170"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6188,10 +6245,10 @@
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="213"/>
-      <c r="I7" s="214"/>
-      <c r="J7" s="214"/>
-      <c r="K7" s="214"/>
+      <c r="H7" s="168"/>
+      <c r="I7" s="169"/>
+      <c r="J7" s="169"/>
+      <c r="K7" s="169"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="159" t="s">
@@ -6204,10 +6261,10 @@
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="204"/>
-      <c r="I8" s="205"/>
-      <c r="J8" s="205"/>
-      <c r="K8" s="205"/>
+      <c r="H8" s="171"/>
+      <c r="I8" s="172"/>
+      <c r="J8" s="172"/>
+      <c r="K8" s="172"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="157" t="s">
@@ -6220,10 +6277,10 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="204"/>
-      <c r="I9" s="205"/>
-      <c r="J9" s="205"/>
-      <c r="K9" s="205"/>
+      <c r="H9" s="171"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
@@ -6236,10 +6293,10 @@
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="204"/>
-      <c r="I10" s="205"/>
-      <c r="J10" s="205"/>
-      <c r="K10" s="205"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="172"/>
+      <c r="J10" s="172"/>
+      <c r="K10" s="172"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="159" t="s">
@@ -6252,47 +6309,47 @@
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="204"/>
-      <c r="I11" s="205"/>
-      <c r="J11" s="205"/>
-      <c r="K11" s="205"/>
+      <c r="H11" s="171"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+      <c r="K11" s="172"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="204"/>
-      <c r="I12" s="205"/>
-      <c r="J12" s="205"/>
-      <c r="K12" s="205"/>
+      <c r="H12" s="171"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
     </row>
     <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G13" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="204"/>
-      <c r="I13" s="205"/>
-      <c r="J13" s="205"/>
-      <c r="K13" s="205"/>
+      <c r="H13" s="171"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="204"/>
-      <c r="I14" s="205"/>
-      <c r="J14" s="205"/>
-      <c r="K14" s="205"/>
+      <c r="H14" s="171"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="G15" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="204"/>
-      <c r="I15" s="205"/>
-      <c r="J15" s="205"/>
-      <c r="K15" s="205"/>
+      <c r="H15" s="171"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
     </row>
     <row r="16" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -6307,93 +6364,93 @@
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="178"/>
-      <c r="I17" s="179" t="s">
+      <c r="G17" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="183"/>
+      <c r="I17" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="180"/>
-      <c r="K17" s="181"/>
+      <c r="J17" s="185"/>
+      <c r="K17" s="186"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="230" t="s">
+      <c r="A18" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="243" t="s">
+      <c r="B18" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="243" t="s">
+      <c r="C18" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="243"/>
-      <c r="E18" s="235" t="s">
+      <c r="D18" s="225"/>
+      <c r="E18" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="245"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="188"/>
-      <c r="I18" s="189">
+      <c r="F18" s="228"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="195"/>
+      <c r="I18" s="196">
         <v>0.2</v>
       </c>
-      <c r="J18" s="192">
-        <v>0</v>
-      </c>
-      <c r="K18" s="194">
+      <c r="J18" s="199">
+        <v>0</v>
+      </c>
+      <c r="K18" s="201">
         <f>J18*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="242"/>
-      <c r="B19" s="243"/>
-      <c r="C19" s="243" t="s">
+      <c r="A19" s="223"/>
+      <c r="B19" s="225"/>
+      <c r="C19" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="243"/>
-      <c r="E19" s="246" t="s">
+      <c r="D19" s="225"/>
+      <c r="E19" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="247"/>
-      <c r="G19" s="170"/>
-      <c r="H19" s="171"/>
-      <c r="I19" s="190"/>
-      <c r="J19" s="192"/>
-      <c r="K19" s="194"/>
+      <c r="F19" s="230"/>
+      <c r="G19" s="205"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="197"/>
+      <c r="J19" s="199"/>
+      <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="231"/>
-      <c r="B20" s="244"/>
-      <c r="C20" s="244" t="s">
+      <c r="A20" s="224"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="244"/>
-      <c r="E20" s="246" t="s">
+      <c r="D20" s="226"/>
+      <c r="E20" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="247"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="199"/>
-      <c r="I20" s="191"/>
-      <c r="J20" s="193"/>
-      <c r="K20" s="195"/>
+      <c r="F20" s="230"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="208"/>
+      <c r="I20" s="198"/>
+      <c r="J20" s="200"/>
+      <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="230" t="s">
+      <c r="A21" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="232" t="s">
+      <c r="B21" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="233"/>
-      <c r="D21" s="234"/>
-      <c r="E21" s="235" t="s">
+      <c r="C21" s="232"/>
+      <c r="D21" s="233"/>
+      <c r="E21" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="236"/>
-      <c r="G21" s="170"/>
-      <c r="H21" s="171"/>
+      <c r="F21" s="234"/>
+      <c r="G21" s="205"/>
+      <c r="H21" s="206"/>
       <c r="I21" s="46">
         <v>0.4</v>
       </c>
@@ -6407,18 +6464,18 @@
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="231"/>
-      <c r="B22" s="237" t="s">
+      <c r="A22" s="224"/>
+      <c r="B22" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="238"/>
-      <c r="D22" s="239"/>
-      <c r="E22" s="240" t="s">
+      <c r="C22" s="236"/>
+      <c r="D22" s="237"/>
+      <c r="E22" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="241"/>
-      <c r="G22" s="170"/>
-      <c r="H22" s="171"/>
+      <c r="F22" s="239"/>
+      <c r="G22" s="205"/>
+      <c r="H22" s="206"/>
       <c r="I22" s="46">
         <v>0.4</v>
       </c>
@@ -6434,16 +6491,16 @@
       <c r="A23" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="160" t="s">
+      <c r="B23" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="161"/>
-      <c r="D23" s="161"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="161"/>
-      <c r="G23" s="161"/>
-      <c r="H23" s="161"/>
-      <c r="I23" s="162"/>
+      <c r="C23" s="210"/>
+      <c r="D23" s="210"/>
+      <c r="E23" s="210"/>
+      <c r="F23" s="210"/>
+      <c r="G23" s="210"/>
+      <c r="H23" s="210"/>
+      <c r="I23" s="211"/>
       <c r="J23" s="47"/>
       <c r="K23" s="146">
         <v>0</v>
@@ -6456,7 +6513,6 @@
         <v>57</v>
       </c>
       <c r="K24" s="49">
-        <f>(K18+K21+K22)-K23</f>
         <v>0</v>
       </c>
     </row>
@@ -6490,19 +6546,36 @@
       <c r="G26" s="43">
         <v>6</v>
       </c>
+      <c r="H26" s="43">
+        <v>7</v>
+      </c>
+      <c r="I26" s="43">
+        <v>8</v>
+      </c>
+      <c r="J26" s="43">
+        <v>9</v>
+      </c>
       <c r="K26" s="35"/>
     </row>
     <row r="27" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="50" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="147"/>
+      <c r="B27" s="147">
+        <v>0</v>
+      </c>
       <c r="C27" s="148"/>
       <c r="D27" s="148"/>
       <c r="E27" s="148"/>
       <c r="F27" s="148"/>
       <c r="G27" s="149"/>
-      <c r="H27" s="1"/>
+      <c r="H27" s="149">
+        <v>0</v>
+      </c>
+      <c r="I27" s="149"/>
+      <c r="J27" s="149">
+        <v>0</v>
+      </c>
       <c r="K27" s="35"/>
     </row>
     <row r="28" spans="1:12" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6510,22 +6583,23 @@
         <v>87</v>
       </c>
       <c r="B28" s="147"/>
-      <c r="C28" s="148"/>
+      <c r="C28" s="148">
+        <v>0</v>
+      </c>
       <c r="D28" s="148"/>
       <c r="E28" s="148"/>
       <c r="F28" s="148"/>
       <c r="G28" s="149"/>
-      <c r="H28" s="118" t="s">
+      <c r="H28" s="149"/>
+      <c r="I28" s="149"/>
+      <c r="J28" s="149"/>
+      <c r="K28" s="118" t="s">
         <v>86</v>
       </c>
-      <c r="I28" s="272" t="s">
-        <v>85</v>
-      </c>
-      <c r="K28" s="35"/>
     </row>
     <row r="29" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B29" s="131">
-        <f t="shared" ref="B29:G29" si="0">SUM(B27:B28)</f>
+        <f t="shared" ref="B29:J29" si="0">SUM(B27:B28)</f>
         <v>0</v>
       </c>
       <c r="C29" s="131">
@@ -6548,11 +6622,22 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H29" s="133">
-        <f>SUM(B29:G29)</f>
-        <v>0</v>
-      </c>
-      <c r="K29" s="35"/>
+      <c r="H29" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I29" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J29" s="132">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K29" s="133">
+        <f>SUM(B29:J29)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:12" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="F30" s="11" t="s">
@@ -6563,94 +6648,98 @@
         <v>0</v>
       </c>
       <c r="K30" s="51">
-        <f>IFERROR((H29/2)/H30,0)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+        <f>IFERROR((K29/2)/H30,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I31" s="165" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="220"/>
-      <c r="C32" s="220"/>
-      <c r="D32" s="220"/>
-      <c r="E32" s="220"/>
-      <c r="F32" s="220"/>
-      <c r="G32" s="220"/>
-      <c r="H32" s="220"/>
-      <c r="I32" s="220"/>
-      <c r="J32" s="220"/>
-      <c r="K32" s="221"/>
+      <c r="B32" s="244"/>
+      <c r="C32" s="244"/>
+      <c r="D32" s="244"/>
+      <c r="E32" s="244"/>
+      <c r="F32" s="244"/>
+      <c r="G32" s="244"/>
+      <c r="H32" s="244"/>
+      <c r="I32" s="244"/>
+      <c r="J32" s="244"/>
+      <c r="K32" s="245"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="222"/>
-      <c r="B33" s="223"/>
-      <c r="C33" s="223"/>
-      <c r="D33" s="223"/>
-      <c r="E33" s="223"/>
-      <c r="F33" s="223"/>
-      <c r="G33" s="223"/>
-      <c r="H33" s="223"/>
-      <c r="I33" s="223"/>
-      <c r="J33" s="223"/>
-      <c r="K33" s="224"/>
+      <c r="A33" s="246"/>
+      <c r="B33" s="247"/>
+      <c r="C33" s="247"/>
+      <c r="D33" s="247"/>
+      <c r="E33" s="247"/>
+      <c r="F33" s="247"/>
+      <c r="G33" s="247"/>
+      <c r="H33" s="247"/>
+      <c r="I33" s="247"/>
+      <c r="J33" s="247"/>
+      <c r="K33" s="248"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="222"/>
-      <c r="B34" s="223"/>
-      <c r="C34" s="223"/>
-      <c r="D34" s="223"/>
-      <c r="E34" s="223"/>
-      <c r="F34" s="223"/>
-      <c r="G34" s="223"/>
-      <c r="H34" s="223"/>
-      <c r="I34" s="223"/>
-      <c r="J34" s="223"/>
-      <c r="K34" s="224"/>
+      <c r="A34" s="246"/>
+      <c r="B34" s="247"/>
+      <c r="C34" s="247"/>
+      <c r="D34" s="247"/>
+      <c r="E34" s="247"/>
+      <c r="F34" s="247"/>
+      <c r="G34" s="247"/>
+      <c r="H34" s="247"/>
+      <c r="I34" s="247"/>
+      <c r="J34" s="247"/>
+      <c r="K34" s="248"/>
     </row>
     <row r="35" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="222"/>
-      <c r="B35" s="223"/>
-      <c r="C35" s="223"/>
-      <c r="D35" s="223"/>
-      <c r="E35" s="223"/>
-      <c r="F35" s="223"/>
-      <c r="G35" s="223"/>
-      <c r="H35" s="223"/>
-      <c r="I35" s="223"/>
-      <c r="J35" s="223"/>
-      <c r="K35" s="224"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="247"/>
+      <c r="C35" s="247"/>
+      <c r="D35" s="247"/>
+      <c r="E35" s="247"/>
+      <c r="F35" s="247"/>
+      <c r="G35" s="247"/>
+      <c r="H35" s="247"/>
+      <c r="I35" s="247"/>
+      <c r="J35" s="247"/>
+      <c r="K35" s="248"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="225"/>
-      <c r="B36" s="226"/>
-      <c r="C36" s="226"/>
-      <c r="D36" s="226"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-      <c r="H36" s="226"/>
-      <c r="I36" s="226"/>
-      <c r="J36" s="226"/>
-      <c r="K36" s="227"/>
+      <c r="A36" s="249"/>
+      <c r="B36" s="250"/>
+      <c r="C36" s="250"/>
+      <c r="D36" s="250"/>
+      <c r="E36" s="250"/>
+      <c r="F36" s="250"/>
+      <c r="G36" s="250"/>
+      <c r="H36" s="250"/>
+      <c r="I36" s="250"/>
+      <c r="J36" s="250"/>
+      <c r="K36" s="251"/>
     </row>
     <row r="37" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="228" t="s">
+      <c r="A38" s="252" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="228"/>
-      <c r="C38" s="228"/>
-      <c r="D38" s="228"/>
-      <c r="E38" s="228"/>
-      <c r="F38" s="228"/>
-      <c r="G38" s="228"/>
-      <c r="H38" s="229">
+      <c r="B38" s="252"/>
+      <c r="C38" s="252"/>
+      <c r="D38" s="252"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="252"/>
+      <c r="H38" s="253">
         <f>K30</f>
         <v>0</v>
       </c>
-      <c r="I38" s="229"/>
+      <c r="I38" s="253"/>
       <c r="J38" s="33" t="s">
         <v>46</v>
       </c>
@@ -6660,20 +6749,20 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="228" t="s">
+      <c r="A39" s="252" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="228"/>
-      <c r="C39" s="228"/>
-      <c r="D39" s="228"/>
-      <c r="E39" s="228"/>
-      <c r="F39" s="228"/>
-      <c r="G39" s="228"/>
-      <c r="H39" s="229">
+      <c r="B39" s="252"/>
+      <c r="C39" s="252"/>
+      <c r="D39" s="252"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="252"/>
+      <c r="H39" s="253">
         <f>K24</f>
         <v>0</v>
       </c>
-      <c r="I39" s="229"/>
+      <c r="I39" s="253"/>
       <c r="J39" s="52" t="s">
         <v>62</v>
       </c>
@@ -6695,14 +6784,14 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="216" t="s">
+      <c r="E41" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="217"/>
-      <c r="G41" s="217"/>
-      <c r="H41" s="217"/>
-      <c r="I41" s="217"/>
-      <c r="J41" s="218"/>
+      <c r="F41" s="241"/>
+      <c r="G41" s="241"/>
+      <c r="H41" s="241"/>
+      <c r="I41" s="241"/>
+      <c r="J41" s="242"/>
       <c r="K41" s="53">
         <f>K40/4</f>
         <v>0</v>
@@ -6769,16 +6858,22 @@
       <c r="K48" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
+  <mergeCells count="40">
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="A32:K36"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="A18:A20"/>
@@ -6795,20 +6890,15 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="A32:K36"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="H39:I39 K18:K45">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
@@ -6889,9 +6979,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6906,10 +6996,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -6923,10 +7013,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6949,30 +7039,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="255"/>
+      <c r="F9" s="255"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7119,96 +7209,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="256"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="179" t="s">
+      <c r="G23" s="257" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="258"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="180"/>
-      <c r="L23" s="181"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="186"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
+      <c r="A24" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="185" t="s">
+      <c r="D24" s="190"/>
+      <c r="E24" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="258"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="189">
+      <c r="F24" s="260"/>
+      <c r="G24" s="261"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="196">
         <v>0.2</v>
       </c>
-      <c r="K24" s="192"/>
-      <c r="L24" s="195">
+      <c r="K24" s="199"/>
+      <c r="L24" s="202">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183" t="s">
+      <c r="A25" s="188"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="196" t="s">
+      <c r="D25" s="190"/>
+      <c r="E25" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="197"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="192"/>
-      <c r="L25" s="262"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="268"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="199"/>
+      <c r="L25" s="264"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="164"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184" t="s">
+      <c r="A26" s="189"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="196" t="s">
+      <c r="D26" s="191"/>
+      <c r="E26" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="197"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="193"/>
-      <c r="L26" s="263"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="266"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="200"/>
+      <c r="L26" s="265"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="168" t="s">
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="169"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="251"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="269"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="271"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7220,19 +7310,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="164"/>
-      <c r="B28" s="172" t="s">
+      <c r="A28" s="189"/>
+      <c r="B28" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="175" t="s">
+      <c r="C28" s="218"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="176"/>
-      <c r="G28" s="252"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="254"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="268"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7246,16 +7336,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="162"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="211"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7346,12 +7436,14 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7368,14 +7460,12 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
@@ -7452,9 +7542,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="269"/>
-      <c r="D4" s="269"/>
-      <c r="E4" s="269"/>
+      <c r="C4" s="273"/>
+      <c r="D4" s="273"/>
+      <c r="E4" s="273"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7469,10 +7559,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="268"/>
-      <c r="D5" s="268"/>
-      <c r="E5" s="268"/>
-      <c r="F5" s="268"/>
+      <c r="C5" s="272"/>
+      <c r="D5" s="272"/>
+      <c r="E5" s="272"/>
+      <c r="F5" s="272"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7486,10 +7576,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="268"/>
-      <c r="E6" s="268"/>
-      <c r="F6" s="268"/>
+      <c r="C6" s="272"/>
+      <c r="D6" s="272"/>
+      <c r="E6" s="272"/>
+      <c r="F6" s="272"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7518,30 +7608,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="269"/>
-      <c r="D8" s="269"/>
-      <c r="E8" s="269"/>
-      <c r="F8" s="269"/>
+      <c r="C8" s="273"/>
+      <c r="D8" s="273"/>
+      <c r="E8" s="273"/>
+      <c r="F8" s="273"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="268"/>
-      <c r="D9" s="268"/>
-      <c r="E9" s="268"/>
-      <c r="F9" s="268"/>
+      <c r="C9" s="272"/>
+      <c r="D9" s="272"/>
+      <c r="E9" s="272"/>
+      <c r="F9" s="272"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="268"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="268"/>
-      <c r="F10" s="268"/>
+      <c r="C10" s="272"/>
+      <c r="D10" s="272"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="272"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7556,93 +7646,93 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="177" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="178"/>
-      <c r="I13" s="179" t="s">
+      <c r="G13" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="183"/>
+      <c r="I13" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="180"/>
-      <c r="K13" s="181"/>
+      <c r="J13" s="185"/>
+      <c r="K13" s="186"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="230" t="s">
+      <c r="A14" s="222" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="243" t="s">
+      <c r="B14" s="225" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="243" t="s">
+      <c r="C14" s="225" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="243"/>
-      <c r="E14" s="235" t="s">
+      <c r="D14" s="225"/>
+      <c r="E14" s="227" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="245"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="188"/>
-      <c r="I14" s="189">
+      <c r="F14" s="228"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="195"/>
+      <c r="I14" s="196">
         <v>0.2</v>
       </c>
-      <c r="J14" s="192">
-        <v>0</v>
-      </c>
-      <c r="K14" s="194">
+      <c r="J14" s="199">
+        <v>0</v>
+      </c>
+      <c r="K14" s="201">
         <f>J14*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="242"/>
-      <c r="B15" s="243"/>
-      <c r="C15" s="243" t="s">
+      <c r="A15" s="223"/>
+      <c r="B15" s="225"/>
+      <c r="C15" s="225" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="243"/>
-      <c r="E15" s="246" t="s">
+      <c r="D15" s="225"/>
+      <c r="E15" s="229" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="247"/>
-      <c r="G15" s="170"/>
-      <c r="H15" s="171"/>
-      <c r="I15" s="190"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="194"/>
+      <c r="F15" s="230"/>
+      <c r="G15" s="205"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="197"/>
+      <c r="J15" s="199"/>
+      <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="231"/>
-      <c r="B16" s="244"/>
-      <c r="C16" s="244" t="s">
+      <c r="A16" s="224"/>
+      <c r="B16" s="226"/>
+      <c r="C16" s="226" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="244"/>
-      <c r="E16" s="246" t="s">
+      <c r="D16" s="226"/>
+      <c r="E16" s="229" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="247"/>
-      <c r="G16" s="198"/>
-      <c r="H16" s="199"/>
-      <c r="I16" s="191"/>
-      <c r="J16" s="193"/>
-      <c r="K16" s="195"/>
+      <c r="F16" s="230"/>
+      <c r="G16" s="207"/>
+      <c r="H16" s="208"/>
+      <c r="I16" s="198"/>
+      <c r="J16" s="200"/>
+      <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="230" t="s">
+      <c r="A17" s="222" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="232" t="s">
+      <c r="B17" s="231" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="233"/>
-      <c r="D17" s="234"/>
-      <c r="E17" s="235" t="s">
+      <c r="C17" s="232"/>
+      <c r="D17" s="233"/>
+      <c r="E17" s="227" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="236"/>
-      <c r="G17" s="170"/>
-      <c r="H17" s="171"/>
+      <c r="F17" s="234"/>
+      <c r="G17" s="205"/>
+      <c r="H17" s="206"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7656,18 +7746,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="231"/>
-      <c r="B18" s="237" t="s">
+      <c r="A18" s="224"/>
+      <c r="B18" s="235" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="238"/>
-      <c r="D18" s="239"/>
-      <c r="E18" s="240" t="s">
+      <c r="C18" s="236"/>
+      <c r="D18" s="237"/>
+      <c r="E18" s="238" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="241"/>
-      <c r="G18" s="170"/>
-      <c r="H18" s="171"/>
+      <c r="F18" s="239"/>
+      <c r="G18" s="205"/>
+      <c r="H18" s="206"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7683,16 +7773,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="160" t="s">
+      <c r="B19" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="161"/>
-      <c r="D19" s="161"/>
-      <c r="E19" s="161"/>
-      <c r="F19" s="161"/>
-      <c r="G19" s="161"/>
-      <c r="H19" s="161"/>
-      <c r="I19" s="162"/>
+      <c r="C19" s="210"/>
+      <c r="D19" s="210"/>
+      <c r="E19" s="210"/>
+      <c r="F19" s="210"/>
+      <c r="G19" s="210"/>
+      <c r="H19" s="210"/>
+      <c r="I19" s="211"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7778,88 +7868,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="219" t="s">
+      <c r="A26" s="243" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="220"/>
-      <c r="C26" s="220"/>
-      <c r="D26" s="220"/>
-      <c r="E26" s="220"/>
-      <c r="F26" s="220"/>
-      <c r="G26" s="220"/>
-      <c r="H26" s="220"/>
-      <c r="I26" s="220"/>
-      <c r="J26" s="220"/>
-      <c r="K26" s="221"/>
+      <c r="B26" s="244"/>
+      <c r="C26" s="244"/>
+      <c r="D26" s="244"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="244"/>
+      <c r="G26" s="244"/>
+      <c r="H26" s="244"/>
+      <c r="I26" s="244"/>
+      <c r="J26" s="244"/>
+      <c r="K26" s="245"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="222"/>
-      <c r="B27" s="223"/>
-      <c r="C27" s="223"/>
-      <c r="D27" s="223"/>
-      <c r="E27" s="223"/>
-      <c r="F27" s="223"/>
-      <c r="G27" s="223"/>
-      <c r="H27" s="223"/>
-      <c r="I27" s="223"/>
-      <c r="J27" s="223"/>
-      <c r="K27" s="224"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="247"/>
+      <c r="C27" s="247"/>
+      <c r="D27" s="247"/>
+      <c r="E27" s="247"/>
+      <c r="F27" s="247"/>
+      <c r="G27" s="247"/>
+      <c r="H27" s="247"/>
+      <c r="I27" s="247"/>
+      <c r="J27" s="247"/>
+      <c r="K27" s="248"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="222"/>
-      <c r="B28" s="223"/>
-      <c r="C28" s="223"/>
-      <c r="D28" s="223"/>
-      <c r="E28" s="223"/>
-      <c r="F28" s="223"/>
-      <c r="G28" s="223"/>
-      <c r="H28" s="223"/>
-      <c r="I28" s="223"/>
-      <c r="J28" s="223"/>
-      <c r="K28" s="224"/>
+      <c r="A28" s="246"/>
+      <c r="B28" s="247"/>
+      <c r="C28" s="247"/>
+      <c r="D28" s="247"/>
+      <c r="E28" s="247"/>
+      <c r="F28" s="247"/>
+      <c r="G28" s="247"/>
+      <c r="H28" s="247"/>
+      <c r="I28" s="247"/>
+      <c r="J28" s="247"/>
+      <c r="K28" s="248"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="222"/>
-      <c r="B29" s="223"/>
-      <c r="C29" s="223"/>
-      <c r="D29" s="223"/>
-      <c r="E29" s="223"/>
-      <c r="F29" s="223"/>
-      <c r="G29" s="223"/>
-      <c r="H29" s="223"/>
-      <c r="I29" s="223"/>
-      <c r="J29" s="223"/>
-      <c r="K29" s="224"/>
+      <c r="A29" s="246"/>
+      <c r="B29" s="247"/>
+      <c r="C29" s="247"/>
+      <c r="D29" s="247"/>
+      <c r="E29" s="247"/>
+      <c r="F29" s="247"/>
+      <c r="G29" s="247"/>
+      <c r="H29" s="247"/>
+      <c r="I29" s="247"/>
+      <c r="J29" s="247"/>
+      <c r="K29" s="248"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="225"/>
-      <c r="B30" s="226"/>
-      <c r="C30" s="226"/>
-      <c r="D30" s="226"/>
-      <c r="E30" s="226"/>
-      <c r="F30" s="226"/>
-      <c r="G30" s="226"/>
-      <c r="H30" s="226"/>
-      <c r="I30" s="226"/>
-      <c r="J30" s="226"/>
-      <c r="K30" s="227"/>
+      <c r="A30" s="249"/>
+      <c r="B30" s="250"/>
+      <c r="C30" s="250"/>
+      <c r="D30" s="250"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="250"/>
+      <c r="G30" s="250"/>
+      <c r="H30" s="250"/>
+      <c r="I30" s="250"/>
+      <c r="J30" s="250"/>
+      <c r="K30" s="251"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="228" t="s">
+      <c r="A32" s="252" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="228"/>
-      <c r="C32" s="228"/>
-      <c r="D32" s="228"/>
-      <c r="E32" s="228"/>
-      <c r="F32" s="228"/>
-      <c r="G32" s="228"/>
-      <c r="H32" s="266">
+      <c r="B32" s="252"/>
+      <c r="C32" s="252"/>
+      <c r="D32" s="252"/>
+      <c r="E32" s="252"/>
+      <c r="F32" s="252"/>
+      <c r="G32" s="252"/>
+      <c r="H32" s="274">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="266"/>
+      <c r="I32" s="274"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7869,20 +7959,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="228" t="s">
+      <c r="A33" s="252" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="228"/>
-      <c r="C33" s="228"/>
-      <c r="D33" s="228"/>
-      <c r="E33" s="228"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="228"/>
-      <c r="H33" s="229">
+      <c r="B33" s="252"/>
+      <c r="C33" s="252"/>
+      <c r="D33" s="252"/>
+      <c r="E33" s="252"/>
+      <c r="F33" s="252"/>
+      <c r="G33" s="252"/>
+      <c r="H33" s="253">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="267"/>
+      <c r="I33" s="275"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7904,14 +7994,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="216" t="s">
+      <c r="E35" s="240" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="217"/>
-      <c r="G35" s="217"/>
-      <c r="H35" s="217"/>
-      <c r="I35" s="217"/>
-      <c r="J35" s="218"/>
+      <c r="F35" s="241"/>
+      <c r="G35" s="241"/>
+      <c r="H35" s="241"/>
+      <c r="I35" s="241"/>
+      <c r="J35" s="242"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -7966,12 +8056,20 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -7988,20 +8086,12 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
@@ -8082,9 +8172,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="265"/>
-      <c r="D4" s="265"/>
-      <c r="E4" s="265"/>
+      <c r="C4" s="256"/>
+      <c r="D4" s="256"/>
+      <c r="E4" s="256"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -8099,10 +8189,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="264"/>
-      <c r="D5" s="264"/>
-      <c r="E5" s="264"/>
-      <c r="F5" s="264"/>
+      <c r="C5" s="255"/>
+      <c r="D5" s="255"/>
+      <c r="E5" s="255"/>
+      <c r="F5" s="255"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8116,10 +8206,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="264"/>
-      <c r="D6" s="264"/>
-      <c r="E6" s="264"/>
-      <c r="F6" s="264"/>
+      <c r="C6" s="255"/>
+      <c r="D6" s="255"/>
+      <c r="E6" s="255"/>
+      <c r="F6" s="255"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8142,30 +8232,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="265"/>
-      <c r="D8" s="265"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="265"/>
+      <c r="C8" s="256"/>
+      <c r="D8" s="256"/>
+      <c r="E8" s="256"/>
+      <c r="F8" s="256"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="264"/>
-      <c r="D9" s="264"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264"/>
+      <c r="C9" s="255"/>
+      <c r="D9" s="255"/>
+      <c r="E9" s="255"/>
+      <c r="F9" s="255"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="264"/>
-      <c r="D10" s="264"/>
-      <c r="E10" s="264"/>
-      <c r="F10" s="264"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="255"/>
+      <c r="E10" s="255"/>
+      <c r="F10" s="255"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8312,96 +8402,96 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="255" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="256"/>
-      <c r="I23" s="257"/>
-      <c r="J23" s="179" t="s">
+      <c r="G23" s="257" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="258"/>
+      <c r="I23" s="259"/>
+      <c r="J23" s="184" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="180"/>
-      <c r="L23" s="181"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="186"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="163" t="s">
+      <c r="A24" s="187" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="183" t="s">
+      <c r="B24" s="190" t="s">
         <v>4</v>
       </c>
-      <c r="C24" s="183" t="s">
+      <c r="C24" s="190" t="s">
         <v>5</v>
       </c>
-      <c r="D24" s="183"/>
-      <c r="E24" s="185" t="s">
+      <c r="D24" s="190"/>
+      <c r="E24" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="258"/>
-      <c r="G24" s="259"/>
-      <c r="H24" s="260"/>
-      <c r="I24" s="261"/>
-      <c r="J24" s="189">
+      <c r="F24" s="260"/>
+      <c r="G24" s="261"/>
+      <c r="H24" s="262"/>
+      <c r="I24" s="263"/>
+      <c r="J24" s="196">
         <v>0.2</v>
       </c>
-      <c r="K24" s="270"/>
-      <c r="L24" s="195">
+      <c r="K24" s="276"/>
+      <c r="L24" s="202">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="182"/>
-      <c r="B25" s="183"/>
-      <c r="C25" s="183" t="s">
+      <c r="A25" s="188"/>
+      <c r="B25" s="190"/>
+      <c r="C25" s="190" t="s">
         <v>1</v>
       </c>
-      <c r="D25" s="183"/>
-      <c r="E25" s="196" t="s">
+      <c r="D25" s="190"/>
+      <c r="E25" s="203" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="197"/>
-      <c r="G25" s="252"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="254"/>
-      <c r="J25" s="190"/>
-      <c r="K25" s="270"/>
-      <c r="L25" s="262"/>
+      <c r="F25" s="204"/>
+      <c r="G25" s="266"/>
+      <c r="H25" s="267"/>
+      <c r="I25" s="268"/>
+      <c r="J25" s="197"/>
+      <c r="K25" s="276"/>
+      <c r="L25" s="264"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="164"/>
-      <c r="B26" s="184"/>
-      <c r="C26" s="184" t="s">
+      <c r="A26" s="189"/>
+      <c r="B26" s="191"/>
+      <c r="C26" s="191" t="s">
         <v>79</v>
       </c>
-      <c r="D26" s="184"/>
-      <c r="E26" s="196" t="s">
+      <c r="D26" s="191"/>
+      <c r="E26" s="203" t="s">
         <v>64</v>
       </c>
-      <c r="F26" s="197"/>
-      <c r="G26" s="252"/>
-      <c r="H26" s="253"/>
-      <c r="I26" s="254"/>
-      <c r="J26" s="191"/>
-      <c r="K26" s="271"/>
-      <c r="L26" s="263"/>
+      <c r="F26" s="204"/>
+      <c r="G26" s="266"/>
+      <c r="H26" s="267"/>
+      <c r="I26" s="268"/>
+      <c r="J26" s="198"/>
+      <c r="K26" s="277"/>
+      <c r="L26" s="265"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="163" t="s">
+      <c r="A27" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="165" t="s">
+      <c r="B27" s="212" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="166"/>
-      <c r="D27" s="167"/>
-      <c r="E27" s="168" t="s">
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="215" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="169"/>
-      <c r="G27" s="249"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="251"/>
+      <c r="F27" s="216"/>
+      <c r="G27" s="269"/>
+      <c r="H27" s="270"/>
+      <c r="I27" s="271"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8413,19 +8503,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="164"/>
-      <c r="B28" s="172" t="s">
+      <c r="A28" s="189"/>
+      <c r="B28" s="217" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="173"/>
-      <c r="D28" s="174"/>
-      <c r="E28" s="175" t="s">
+      <c r="C28" s="218"/>
+      <c r="D28" s="219"/>
+      <c r="E28" s="220" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="176"/>
-      <c r="G28" s="252"/>
-      <c r="H28" s="253"/>
-      <c r="I28" s="254"/>
+      <c r="F28" s="221"/>
+      <c r="G28" s="266"/>
+      <c r="H28" s="267"/>
+      <c r="I28" s="268"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8439,16 +8529,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="160" t="s">
+      <c r="B29" s="209" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="161"/>
-      <c r="D29" s="161"/>
-      <c r="E29" s="161"/>
-      <c r="F29" s="161"/>
-      <c r="G29" s="161"/>
-      <c r="H29" s="161"/>
-      <c r="I29" s="162"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="210"/>
+      <c r="F29" s="210"/>
+      <c r="G29" s="210"/>
+      <c r="H29" s="210"/>
+      <c r="I29" s="211"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8539,23 +8629,6 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8569,6 +8642,23 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">

--- a/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall)_mer_an_6_deltagare.xlsx
+++ b/mallar/Protokoll/Protokoll 2019 skritt- och lättklass lag_o_ind(mall)_mer_an_6_deltagare.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\episerver\voltige\VoltigeClosedXML\mallar\Protokoll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99FCA9F9-59BC-45E3-911C-EF976271DA04}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A9F11D7-B32D-4D72-A046-0D5CF0A7983E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13096" tabRatio="844" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Information" sheetId="8" r:id="rId1"/>
@@ -1156,7 +1156,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="281">
+  <cellXfs count="282">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1556,10 +1556,166 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1569,177 +1725,93 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="2" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="2" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
     </xf>
@@ -1748,142 +1820,79 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="justify" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="justify" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="7" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1893,13 +1902,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="5" fillId="0" borderId="20" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2712,8 +2715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showZeros="0" view="pageLayout" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14:J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.4" x14ac:dyDescent="0.3"/>
@@ -2762,9 +2765,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -2779,10 +2782,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -2796,10 +2799,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="277"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -2820,7 +2823,7 @@
         <v>73</v>
       </c>
       <c r="J7" s="137"/>
-      <c r="K7" s="138"/>
+      <c r="K7" s="281"/>
       <c r="L7" s="135"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -2828,30 +2831,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="272"/>
-      <c r="D9" s="272"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="272"/>
+      <c r="C9" s="277"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="272"/>
-      <c r="D10" s="272"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
+      <c r="C10" s="277"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -2866,31 +2869,31 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="183"/>
-      <c r="I13" s="184" t="s">
+      <c r="G13" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="185"/>
-      <c r="K13" s="186"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="188"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="222" t="s">
+      <c r="A14" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="225" t="s">
+      <c r="B14" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="225" t="s">
+      <c r="C14" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="225"/>
-      <c r="E14" s="227" t="s">
+      <c r="D14" s="250"/>
+      <c r="E14" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="228"/>
+      <c r="F14" s="252"/>
       <c r="G14" s="194"/>
       <c r="H14" s="195"/>
       <c r="I14" s="196">
@@ -2905,54 +2908,54 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="223"/>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225" t="s">
+      <c r="A15" s="249"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="225"/>
-      <c r="E15" s="229" t="s">
+      <c r="D15" s="250"/>
+      <c r="E15" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="230"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="206"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="178"/>
       <c r="I15" s="197"/>
       <c r="J15" s="199"/>
       <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="224"/>
-      <c r="B16" s="226"/>
-      <c r="C16" s="226" t="s">
+      <c r="A16" s="238"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="229" t="s">
+      <c r="D16" s="251"/>
+      <c r="E16" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="230"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="208"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="206"/>
       <c r="I16" s="198"/>
       <c r="J16" s="200"/>
       <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="231" t="s">
+      <c r="B17" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="232"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="227" t="s">
+      <c r="C17" s="240"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="234"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="206"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="178"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -2966,18 +2969,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="224"/>
-      <c r="B18" s="235" t="s">
+      <c r="A18" s="238"/>
+      <c r="B18" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="238" t="s">
+      <c r="C18" s="245"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="239"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="206"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="178"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -2993,16 +2996,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="211"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145"/>
     </row>
@@ -3086,88 +3089,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="243" t="s">
+      <c r="A26" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="244"/>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="244"/>
-      <c r="J26" s="244"/>
-      <c r="K26" s="245"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="228"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="246"/>
-      <c r="B27" s="247"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="248"/>
+      <c r="A27" s="229"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="230"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="230"/>
+      <c r="K27" s="231"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="246"/>
-      <c r="B28" s="247"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="247"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="247"/>
-      <c r="K28" s="248"/>
+      <c r="A28" s="229"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="231"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="246"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="247"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="248"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="231"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="249"/>
-      <c r="B30" s="250"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="251"/>
+      <c r="A30" s="232"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="233"/>
+      <c r="K30" s="234"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="252" t="s">
+      <c r="A32" s="235" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="252"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="274">
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="275">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="274"/>
+      <c r="I32" s="275"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -3177,20 +3180,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="252" t="s">
+      <c r="A33" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="252"/>
-      <c r="C33" s="252"/>
-      <c r="D33" s="252"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="252"/>
-      <c r="H33" s="253">
+      <c r="B33" s="235"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="236">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="275"/>
+      <c r="I33" s="276"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -3212,14 +3215,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="240" t="s">
+      <c r="E35" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="241"/>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="242"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="225"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -3274,6 +3277,26 @@
     </row>
   </sheetData>
   <mergeCells count="36">
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
@@ -3290,26 +3313,6 @@
     <mergeCell ref="G15:H15"/>
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
@@ -3387,8 +3390,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -3403,9 +3406,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -3427,83 +3430,83 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
     </row>
     <row r="13" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -3533,11 +3536,11 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="176" t="s">
+      <c r="A15" s="213" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="177"/>
-      <c r="C15" s="178"/>
+      <c r="B15" s="214"/>
+      <c r="C15" s="215"/>
       <c r="D15" s="141"/>
       <c r="E15" s="141"/>
       <c r="F15" s="141"/>
@@ -3550,11 +3553,11 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="173" t="s">
+      <c r="A16" s="207" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="174"/>
-      <c r="C16" s="175"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="209"/>
       <c r="D16" s="141"/>
       <c r="E16" s="141"/>
       <c r="F16" s="141"/>
@@ -3567,11 +3570,11 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="173" t="s">
+      <c r="A17" s="207" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="174"/>
-      <c r="C17" s="175"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="209"/>
       <c r="D17" s="141"/>
       <c r="E17" s="141"/>
       <c r="F17" s="141"/>
@@ -3584,11 +3587,11 @@
       </c>
     </row>
     <row r="18" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="179" t="s">
+      <c r="A18" s="216" t="s">
         <v>69</v>
       </c>
-      <c r="B18" s="180"/>
-      <c r="C18" s="181"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="218"/>
       <c r="D18" s="141"/>
       <c r="E18" s="141"/>
       <c r="F18" s="141"/>
@@ -3601,11 +3604,11 @@
       </c>
     </row>
     <row r="19" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="173" t="s">
+      <c r="A19" s="207" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="174"/>
-      <c r="C19" s="175"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="209"/>
       <c r="D19" s="141"/>
       <c r="E19" s="141"/>
       <c r="F19" s="141"/>
@@ -3618,11 +3621,11 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="173" t="s">
+      <c r="A20" s="207" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="174"/>
-      <c r="C20" s="175"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="209"/>
       <c r="D20" s="141"/>
       <c r="E20" s="141"/>
       <c r="F20" s="141"/>
@@ -3711,18 +3714,18 @@
       <c r="D28" s="45"/>
       <c r="E28" s="45"/>
       <c r="F28" s="45"/>
-      <c r="G28" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H28" s="183"/>
-      <c r="I28" s="184" t="s">
+      <c r="G28" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H28" s="185"/>
+      <c r="I28" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="J28" s="185"/>
-      <c r="K28" s="186"/>
+      <c r="J28" s="187"/>
+      <c r="K28" s="188"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A29" s="187" t="s">
+      <c r="A29" s="170" t="s">
         <v>43</v>
       </c>
       <c r="B29" s="190" t="s">
@@ -3748,7 +3751,7 @@
       </c>
     </row>
     <row r="30" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="188"/>
+      <c r="A30" s="189"/>
       <c r="B30" s="190"/>
       <c r="C30" s="190" t="s">
         <v>1</v>
@@ -3758,14 +3761,14 @@
         <v>38</v>
       </c>
       <c r="F30" s="204"/>
-      <c r="G30" s="205"/>
-      <c r="H30" s="206"/>
+      <c r="G30" s="177"/>
+      <c r="H30" s="178"/>
       <c r="I30" s="197"/>
       <c r="J30" s="199"/>
       <c r="K30" s="201"/>
     </row>
     <row r="31" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="189"/>
+      <c r="A31" s="171"/>
       <c r="B31" s="191"/>
       <c r="C31" s="191" t="s">
         <v>6</v>
@@ -3775,27 +3778,27 @@
         <v>64</v>
       </c>
       <c r="F31" s="204"/>
-      <c r="G31" s="207"/>
-      <c r="H31" s="208"/>
+      <c r="G31" s="205"/>
+      <c r="H31" s="206"/>
       <c r="I31" s="198"/>
       <c r="J31" s="200"/>
       <c r="K31" s="202"/>
     </row>
     <row r="32" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="212" t="s">
+      <c r="B32" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C32" s="213"/>
-      <c r="D32" s="214"/>
-      <c r="E32" s="215" t="s">
+      <c r="C32" s="173"/>
+      <c r="D32" s="174"/>
+      <c r="E32" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="F32" s="216"/>
-      <c r="G32" s="205"/>
-      <c r="H32" s="206"/>
+      <c r="F32" s="176"/>
+      <c r="G32" s="177"/>
+      <c r="H32" s="178"/>
       <c r="I32" s="46">
         <v>0.4</v>
       </c>
@@ -3806,18 +3809,18 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="189"/>
-      <c r="B33" s="217" t="s">
+      <c r="A33" s="171"/>
+      <c r="B33" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="218"/>
-      <c r="D33" s="219"/>
-      <c r="E33" s="220" t="s">
+      <c r="C33" s="180"/>
+      <c r="D33" s="181"/>
+      <c r="E33" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="F33" s="221"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="206"/>
+      <c r="F33" s="183"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="178"/>
       <c r="I33" s="46">
         <v>0.4</v>
       </c>
@@ -3831,16 +3834,16 @@
       <c r="A34" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B34" s="209" t="s">
+      <c r="B34" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="210"/>
-      <c r="D34" s="210"/>
-      <c r="E34" s="210"/>
-      <c r="F34" s="210"/>
-      <c r="G34" s="210"/>
-      <c r="H34" s="210"/>
-      <c r="I34" s="211"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
+      <c r="E34" s="168"/>
+      <c r="F34" s="168"/>
+      <c r="G34" s="168"/>
+      <c r="H34" s="168"/>
+      <c r="I34" s="169"/>
       <c r="J34" s="55"/>
       <c r="K34" s="56">
         <f>J34</f>
@@ -3927,14 +3930,24 @@
     <row r="47" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="42">
-    <mergeCell ref="B34:I34"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="G33:H33"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="A15:C15"/>
+    <mergeCell ref="A16:C16"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A19:C19"/>
     <mergeCell ref="G28:H28"/>
     <mergeCell ref="I28:K28"/>
     <mergeCell ref="A29:A31"/>
@@ -3951,24 +3964,14 @@
     <mergeCell ref="C31:D31"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:H31"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A16:C16"/>
-    <mergeCell ref="A17:C17"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="B34:I34"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="G33:H33"/>
   </mergeCells>
   <conditionalFormatting sqref="K29:K37">
     <cfRule type="cellIs" dxfId="23" priority="2" operator="equal">
@@ -4053,9 +4056,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="157"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -4069,9 +4072,9 @@
         <v>12</v>
       </c>
       <c r="B6" s="159"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
+      <c r="E6" s="210"/>
       <c r="G6" s="11" t="s">
         <v>14</v>
       </c>
@@ -4080,120 +4083,120 @@
       <c r="A7" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="159" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="159"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
+      <c r="C8" s="210"/>
+      <c r="D8" s="210"/>
+      <c r="E8" s="210"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="157" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="157"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="159"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="159" t="s">
         <v>30</v>
       </c>
       <c r="B11" s="159"/>
-      <c r="C11" s="167"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
+      <c r="C11" s="210"/>
+      <c r="D11" s="210"/>
+      <c r="E11" s="210"/>
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
     </row>
     <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="G13" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="G14" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="G15" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
     </row>
     <row r="16" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -4208,31 +4211,31 @@
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184" t="s">
+      <c r="G17" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="188"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="225" t="s">
+      <c r="C18" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="225"/>
-      <c r="E18" s="227" t="s">
+      <c r="D18" s="250"/>
+      <c r="E18" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="228"/>
+      <c r="F18" s="252"/>
       <c r="G18" s="194"/>
       <c r="H18" s="195"/>
       <c r="I18" s="196">
@@ -4247,54 +4250,54 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="223"/>
-      <c r="B19" s="225"/>
-      <c r="C19" s="225" t="s">
+      <c r="A19" s="249"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="225"/>
-      <c r="E19" s="229" t="s">
+      <c r="D19" s="250"/>
+      <c r="E19" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="230"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="206"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="178"/>
       <c r="I19" s="197"/>
       <c r="J19" s="199"/>
       <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="224"/>
-      <c r="B20" s="226"/>
-      <c r="C20" s="226" t="s">
+      <c r="A20" s="238"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="226"/>
-      <c r="E20" s="229" t="s">
+      <c r="D20" s="251"/>
+      <c r="E20" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="230"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="208"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="206"/>
       <c r="I20" s="198"/>
       <c r="J20" s="200"/>
       <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="222" t="s">
+      <c r="A21" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="227" t="s">
+      <c r="C21" s="240"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="234"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="206"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="178"/>
       <c r="I21" s="46">
         <v>0.4</v>
       </c>
@@ -4308,18 +4311,18 @@
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="224"/>
-      <c r="B22" s="235" t="s">
+      <c r="A22" s="238"/>
+      <c r="B22" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="238" t="s">
+      <c r="C22" s="245"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="239"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="206"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="178"/>
       <c r="I22" s="46">
         <v>0.4</v>
       </c>
@@ -4335,16 +4338,16 @@
       <c r="A23" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="209" t="s">
+      <c r="B23" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="211"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="169"/>
       <c r="J23" s="47"/>
       <c r="K23" s="146">
         <v>0</v>
@@ -4470,88 +4473,88 @@
     </row>
     <row r="31" spans="1:12" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="244"/>
-      <c r="K32" s="245"/>
+      <c r="B32" s="227"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="228"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="246"/>
-      <c r="B33" s="247"/>
-      <c r="C33" s="247"/>
-      <c r="D33" s="247"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="247"/>
-      <c r="K33" s="248"/>
+      <c r="A33" s="229"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="231"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="246"/>
-      <c r="B34" s="247"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="247"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="247"/>
-      <c r="J34" s="247"/>
-      <c r="K34" s="248"/>
+      <c r="A34" s="229"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="230"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="230"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="230"/>
+      <c r="J34" s="230"/>
+      <c r="K34" s="231"/>
     </row>
     <row r="35" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="246"/>
-      <c r="B35" s="247"/>
-      <c r="C35" s="247"/>
-      <c r="D35" s="247"/>
-      <c r="E35" s="247"/>
-      <c r="F35" s="247"/>
-      <c r="G35" s="247"/>
-      <c r="H35" s="247"/>
-      <c r="I35" s="247"/>
-      <c r="J35" s="247"/>
-      <c r="K35" s="248"/>
+      <c r="A35" s="229"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="230"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="230"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="231"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="250"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="250"/>
-      <c r="I36" s="250"/>
-      <c r="J36" s="250"/>
-      <c r="K36" s="251"/>
+      <c r="A36" s="232"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="233"/>
+      <c r="G36" s="233"/>
+      <c r="H36" s="233"/>
+      <c r="I36" s="233"/>
+      <c r="J36" s="233"/>
+      <c r="K36" s="234"/>
     </row>
     <row r="37" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="252" t="s">
+      <c r="A38" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="252"/>
-      <c r="C38" s="252"/>
-      <c r="D38" s="252"/>
-      <c r="E38" s="252"/>
-      <c r="F38" s="252"/>
-      <c r="G38" s="252"/>
-      <c r="H38" s="253">
+      <c r="B38" s="235"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="236">
         <f>K30</f>
         <v>0</v>
       </c>
-      <c r="I38" s="253"/>
+      <c r="I38" s="236"/>
       <c r="J38" s="33" t="s">
         <v>46</v>
       </c>
@@ -4561,20 +4564,20 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="252" t="s">
+      <c r="A39" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="252"/>
-      <c r="C39" s="252"/>
-      <c r="D39" s="252"/>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="252"/>
-      <c r="H39" s="253">
+      <c r="B39" s="235"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="235"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="236">
         <f>K24</f>
         <v>0</v>
       </c>
-      <c r="I39" s="253"/>
+      <c r="I39" s="236"/>
       <c r="J39" s="52" t="s">
         <v>62</v>
       </c>
@@ -4596,14 +4599,14 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="240" t="s">
+      <c r="E41" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="241"/>
-      <c r="I41" s="241"/>
-      <c r="J41" s="242"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="225"/>
       <c r="K41" s="53">
         <f>K40/4</f>
         <v>0</v>
@@ -4662,27 +4665,15 @@
     </row>
   </sheetData>
   <mergeCells count="46">
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="E41:J41"/>
-    <mergeCell ref="B23:I23"/>
-    <mergeCell ref="A32:K36"/>
-    <mergeCell ref="A38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="A39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
     <mergeCell ref="G17:H17"/>
     <mergeCell ref="I17:K17"/>
     <mergeCell ref="A18:A20"/>
@@ -4699,15 +4690,27 @@
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="G20:H20"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="E41:J41"/>
+    <mergeCell ref="B23:I23"/>
+    <mergeCell ref="A32:K36"/>
+    <mergeCell ref="A38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
   </mergeCells>
   <conditionalFormatting sqref="H39:I39 K18:K44">
     <cfRule type="cellIs" dxfId="21" priority="3" operator="equal">
@@ -4788,9 +4791,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="170"/>
-      <c r="D4" s="170"/>
-      <c r="E4" s="170"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
       <c r="F4" s="40"/>
       <c r="H4" s="3"/>
       <c r="I4" s="7" t="s">
@@ -4805,10 +4808,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
+      <c r="F5" s="210"/>
       <c r="H5" s="3"/>
       <c r="I5" s="7" t="s">
         <v>13</v>
@@ -4830,87 +4833,87 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
+      <c r="F7" s="210"/>
       <c r="H7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I7" s="168"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
-      <c r="L7" s="169"/>
+      <c r="I7" s="220"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
+      <c r="L7" s="221"/>
     </row>
     <row r="8" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
-      <c r="F8" s="170"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
       <c r="H8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="171"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
-      <c r="L8" s="172"/>
+      <c r="I8" s="211"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
+      <c r="L8" s="212"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
+      <c r="F9" s="210"/>
       <c r="H9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="171"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
+      <c r="I9" s="211"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
+      <c r="L9" s="212"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
+      <c r="F10" s="210"/>
       <c r="H10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I10" s="171"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
-      <c r="L10" s="172"/>
+      <c r="I10" s="211"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
+      <c r="L10" s="212"/>
     </row>
     <row r="11" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="H11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="I11" s="171"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
-      <c r="L11" s="172"/>
+      <c r="I11" s="211"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
+      <c r="L11" s="212"/>
     </row>
     <row r="12" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="H12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="I12" s="171"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
+      <c r="I12" s="211"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
+      <c r="L12" s="212"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9"/>
@@ -4926,32 +4929,32 @@
       <c r="E14" s="45"/>
       <c r="F14" s="45"/>
       <c r="G14" s="45"/>
-      <c r="H14" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="I14" s="183"/>
-      <c r="J14" s="184" t="s">
+      <c r="H14" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="I14" s="185"/>
+      <c r="J14" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="185"/>
-      <c r="L14" s="186"/>
+      <c r="K14" s="187"/>
+      <c r="L14" s="188"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A15" s="222" t="s">
+      <c r="A15" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="B15" s="225" t="s">
+      <c r="B15" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="225" t="s">
+      <c r="C15" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="225"/>
-      <c r="E15" s="225"/>
-      <c r="F15" s="227" t="s">
+      <c r="D15" s="250"/>
+      <c r="E15" s="250"/>
+      <c r="F15" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="G15" s="228"/>
+      <c r="G15" s="252"/>
       <c r="H15" s="194"/>
       <c r="I15" s="195"/>
       <c r="J15" s="196">
@@ -4964,57 +4967,57 @@
       </c>
     </row>
     <row r="16" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="223"/>
-      <c r="B16" s="225"/>
-      <c r="C16" s="225" t="s">
+      <c r="A16" s="249"/>
+      <c r="B16" s="250"/>
+      <c r="C16" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="225"/>
-      <c r="E16" s="225"/>
-      <c r="F16" s="229" t="s">
+      <c r="D16" s="250"/>
+      <c r="E16" s="250"/>
+      <c r="F16" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="G16" s="230"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="206"/>
+      <c r="G16" s="254"/>
+      <c r="H16" s="177"/>
+      <c r="I16" s="178"/>
       <c r="J16" s="197"/>
       <c r="K16" s="199"/>
       <c r="L16" s="201"/>
     </row>
     <row r="17" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="224"/>
-      <c r="B17" s="226"/>
-      <c r="C17" s="226" t="s">
+      <c r="A17" s="238"/>
+      <c r="B17" s="251"/>
+      <c r="C17" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="226"/>
-      <c r="E17" s="226"/>
-      <c r="F17" s="229" t="s">
+      <c r="D17" s="251"/>
+      <c r="E17" s="251"/>
+      <c r="F17" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="G17" s="230"/>
-      <c r="H17" s="207"/>
-      <c r="I17" s="208"/>
+      <c r="G17" s="254"/>
+      <c r="H17" s="205"/>
+      <c r="I17" s="206"/>
       <c r="J17" s="198"/>
       <c r="K17" s="200"/>
       <c r="L17" s="202"/>
     </row>
     <row r="18" spans="1:13" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="B18" s="231" t="s">
+      <c r="B18" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C18" s="232"/>
-      <c r="D18" s="232"/>
-      <c r="E18" s="233"/>
-      <c r="F18" s="227" t="s">
+      <c r="C18" s="240"/>
+      <c r="D18" s="240"/>
+      <c r="E18" s="241"/>
+      <c r="F18" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="G18" s="234"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="206"/>
+      <c r="G18" s="243"/>
+      <c r="H18" s="177"/>
+      <c r="I18" s="178"/>
       <c r="J18" s="46">
         <v>0.4</v>
       </c>
@@ -5026,19 +5029,19 @@
       <c r="M18" s="26"/>
     </row>
     <row r="19" spans="1:13" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="224"/>
-      <c r="B19" s="235" t="s">
+      <c r="A19" s="238"/>
+      <c r="B19" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C19" s="236"/>
-      <c r="D19" s="236"/>
-      <c r="E19" s="237"/>
-      <c r="F19" s="238" t="s">
+      <c r="C19" s="245"/>
+      <c r="D19" s="245"/>
+      <c r="E19" s="246"/>
+      <c r="F19" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="G19" s="239"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="206"/>
+      <c r="G19" s="248"/>
+      <c r="H19" s="177"/>
+      <c r="I19" s="178"/>
       <c r="J19" s="46">
         <v>0.4</v>
       </c>
@@ -5052,17 +5055,17 @@
       <c r="A20" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="209" t="s">
+      <c r="B20" s="167" t="s">
         <v>66</v>
       </c>
-      <c r="C20" s="210"/>
-      <c r="D20" s="210"/>
-      <c r="E20" s="210"/>
-      <c r="F20" s="210"/>
-      <c r="G20" s="210"/>
-      <c r="H20" s="210"/>
-      <c r="I20" s="210"/>
-      <c r="J20" s="211"/>
+      <c r="C20" s="168"/>
+      <c r="D20" s="168"/>
+      <c r="E20" s="168"/>
+      <c r="F20" s="168"/>
+      <c r="G20" s="168"/>
+      <c r="H20" s="168"/>
+      <c r="I20" s="168"/>
+      <c r="J20" s="169"/>
       <c r="K20" s="47"/>
       <c r="L20" s="145"/>
     </row>
@@ -5080,90 +5083,90 @@
       </c>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="243" t="s">
+      <c r="A23" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="B23" s="244"/>
-      <c r="C23" s="244"/>
-      <c r="D23" s="244"/>
-      <c r="E23" s="244"/>
-      <c r="F23" s="244"/>
-      <c r="G23" s="244"/>
-      <c r="H23" s="244"/>
-      <c r="I23" s="244"/>
-      <c r="J23" s="244"/>
-      <c r="K23" s="244"/>
-      <c r="L23" s="245"/>
+      <c r="B23" s="227"/>
+      <c r="C23" s="227"/>
+      <c r="D23" s="227"/>
+      <c r="E23" s="227"/>
+      <c r="F23" s="227"/>
+      <c r="G23" s="227"/>
+      <c r="H23" s="227"/>
+      <c r="I23" s="227"/>
+      <c r="J23" s="227"/>
+      <c r="K23" s="227"/>
+      <c r="L23" s="228"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="246"/>
-      <c r="B24" s="247"/>
-      <c r="C24" s="247"/>
-      <c r="D24" s="247"/>
-      <c r="E24" s="247"/>
-      <c r="F24" s="247"/>
-      <c r="G24" s="247"/>
-      <c r="H24" s="247"/>
-      <c r="I24" s="247"/>
-      <c r="J24" s="247"/>
-      <c r="K24" s="247"/>
-      <c r="L24" s="248"/>
+      <c r="A24" s="229"/>
+      <c r="B24" s="230"/>
+      <c r="C24" s="230"/>
+      <c r="D24" s="230"/>
+      <c r="E24" s="230"/>
+      <c r="F24" s="230"/>
+      <c r="G24" s="230"/>
+      <c r="H24" s="230"/>
+      <c r="I24" s="230"/>
+      <c r="J24" s="230"/>
+      <c r="K24" s="230"/>
+      <c r="L24" s="231"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="246"/>
-      <c r="B25" s="247"/>
-      <c r="C25" s="247"/>
-      <c r="D25" s="247"/>
-      <c r="E25" s="247"/>
-      <c r="F25" s="247"/>
-      <c r="G25" s="247"/>
-      <c r="H25" s="247"/>
-      <c r="I25" s="247"/>
-      <c r="J25" s="247"/>
-      <c r="K25" s="247"/>
-      <c r="L25" s="248"/>
+      <c r="A25" s="229"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="230"/>
+      <c r="H25" s="230"/>
+      <c r="I25" s="230"/>
+      <c r="J25" s="230"/>
+      <c r="K25" s="230"/>
+      <c r="L25" s="231"/>
     </row>
     <row r="26" spans="1:13" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="246"/>
-      <c r="B26" s="247"/>
-      <c r="C26" s="247"/>
-      <c r="D26" s="247"/>
-      <c r="E26" s="247"/>
-      <c r="F26" s="247"/>
-      <c r="G26" s="247"/>
-      <c r="H26" s="247"/>
-      <c r="I26" s="247"/>
-      <c r="J26" s="247"/>
-      <c r="K26" s="247"/>
-      <c r="L26" s="248"/>
+      <c r="A26" s="229"/>
+      <c r="B26" s="230"/>
+      <c r="C26" s="230"/>
+      <c r="D26" s="230"/>
+      <c r="E26" s="230"/>
+      <c r="F26" s="230"/>
+      <c r="G26" s="230"/>
+      <c r="H26" s="230"/>
+      <c r="I26" s="230"/>
+      <c r="J26" s="230"/>
+      <c r="K26" s="230"/>
+      <c r="L26" s="231"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="249"/>
-      <c r="B27" s="250"/>
-      <c r="C27" s="250"/>
-      <c r="D27" s="250"/>
-      <c r="E27" s="250"/>
-      <c r="F27" s="250"/>
-      <c r="G27" s="250"/>
-      <c r="H27" s="250"/>
-      <c r="I27" s="250"/>
-      <c r="J27" s="250"/>
-      <c r="K27" s="250"/>
-      <c r="L27" s="251"/>
+      <c r="A27" s="232"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="233"/>
+      <c r="D27" s="233"/>
+      <c r="E27" s="233"/>
+      <c r="F27" s="233"/>
+      <c r="G27" s="233"/>
+      <c r="H27" s="233"/>
+      <c r="I27" s="233"/>
+      <c r="J27" s="233"/>
+      <c r="K27" s="233"/>
+      <c r="L27" s="234"/>
     </row>
     <row r="29" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A29" s="252" t="s">
+      <c r="A29" s="235" t="s">
         <v>50</v>
       </c>
-      <c r="B29" s="252"/>
-      <c r="C29" s="252"/>
-      <c r="D29" s="252"/>
-      <c r="E29" s="252"/>
-      <c r="F29" s="252"/>
-      <c r="G29" s="252"/>
-      <c r="H29" s="252"/>
-      <c r="I29" s="254"/>
-      <c r="J29" s="254"/>
+      <c r="B29" s="235"/>
+      <c r="C29" s="235"/>
+      <c r="D29" s="235"/>
+      <c r="E29" s="235"/>
+      <c r="F29" s="235"/>
+      <c r="G29" s="235"/>
+      <c r="H29" s="235"/>
+      <c r="I29" s="255"/>
+      <c r="J29" s="255"/>
       <c r="K29" s="140" t="s">
         <v>45</v>
       </c>
@@ -5173,18 +5176,18 @@
       </c>
     </row>
     <row r="30" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="252" t="s">
+      <c r="A30" s="235" t="s">
         <v>51</v>
       </c>
-      <c r="B30" s="252"/>
-      <c r="C30" s="252"/>
-      <c r="D30" s="252"/>
-      <c r="E30" s="252"/>
-      <c r="F30" s="252"/>
-      <c r="G30" s="252"/>
-      <c r="H30" s="252"/>
-      <c r="I30" s="254"/>
-      <c r="J30" s="254"/>
+      <c r="B30" s="235"/>
+      <c r="C30" s="235"/>
+      <c r="D30" s="235"/>
+      <c r="E30" s="235"/>
+      <c r="F30" s="235"/>
+      <c r="G30" s="235"/>
+      <c r="H30" s="235"/>
+      <c r="I30" s="255"/>
+      <c r="J30" s="255"/>
       <c r="K30" s="42" t="s">
         <v>45</v>
       </c>
@@ -5194,18 +5197,18 @@
       </c>
     </row>
     <row r="31" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="252" t="s">
+      <c r="A31" s="235" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="252"/>
-      <c r="C31" s="252"/>
-      <c r="D31" s="252"/>
-      <c r="E31" s="252"/>
-      <c r="F31" s="252"/>
-      <c r="G31" s="252"/>
-      <c r="H31" s="252"/>
-      <c r="I31" s="254"/>
-      <c r="J31" s="254"/>
+      <c r="B31" s="235"/>
+      <c r="C31" s="235"/>
+      <c r="D31" s="235"/>
+      <c r="E31" s="235"/>
+      <c r="F31" s="235"/>
+      <c r="G31" s="235"/>
+      <c r="H31" s="235"/>
+      <c r="I31" s="255"/>
+      <c r="J31" s="255"/>
       <c r="K31" s="42" t="s">
         <v>100</v>
       </c>
@@ -5215,18 +5218,18 @@
       </c>
     </row>
     <row r="32" spans="1:13" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="252" t="s">
+      <c r="A32" s="235" t="s">
         <v>53</v>
       </c>
-      <c r="B32" s="252"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="252"/>
-      <c r="I32" s="254"/>
-      <c r="J32" s="254"/>
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="235"/>
+      <c r="I32" s="255"/>
+      <c r="J32" s="255"/>
       <c r="K32" s="42" t="s">
         <v>47</v>
       </c>
@@ -5236,21 +5239,21 @@
       </c>
     </row>
     <row r="33" spans="1:12" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="252" t="s">
+      <c r="A33" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="B33" s="252"/>
-      <c r="C33" s="252"/>
-      <c r="D33" s="252"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="252"/>
-      <c r="H33" s="252"/>
-      <c r="I33" s="253">
+      <c r="B33" s="235"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="235"/>
+      <c r="I33" s="236">
         <f>L21</f>
         <v>0</v>
       </c>
-      <c r="J33" s="253"/>
+      <c r="J33" s="236"/>
       <c r="K33" s="42" t="s">
         <v>100</v>
       </c>
@@ -5272,14 +5275,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="F35" s="240" t="s">
+      <c r="F35" s="223" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="241"/>
-      <c r="K35" s="242"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="224"/>
+      <c r="K35" s="225"/>
       <c r="L35" s="53">
         <f>L34/10</f>
         <v>0</v>
@@ -5370,18 +5373,26 @@
     </row>
   </sheetData>
   <mergeCells count="48">
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="F35:K35"/>
+    <mergeCell ref="A31:H31"/>
+    <mergeCell ref="I31:J31"/>
+    <mergeCell ref="A32:H32"/>
+    <mergeCell ref="I32:J32"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="B20:J20"/>
+    <mergeCell ref="A23:L27"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="I29:J29"/>
+    <mergeCell ref="A30:H30"/>
+    <mergeCell ref="I30:J30"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="B19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
     <mergeCell ref="H14:I14"/>
     <mergeCell ref="J14:L14"/>
     <mergeCell ref="A15:A17"/>
@@ -5398,26 +5409,18 @@
     <mergeCell ref="C17:E17"/>
     <mergeCell ref="F17:G17"/>
     <mergeCell ref="H17:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="B20:J20"/>
-    <mergeCell ref="A23:L27"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="I29:J29"/>
-    <mergeCell ref="A30:H30"/>
-    <mergeCell ref="I30:J30"/>
-    <mergeCell ref="F35:K35"/>
-    <mergeCell ref="A31:H31"/>
-    <mergeCell ref="I31:J31"/>
-    <mergeCell ref="A32:H32"/>
-    <mergeCell ref="I32:J32"/>
-    <mergeCell ref="A33:H33"/>
-    <mergeCell ref="I33:J33"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="C10:F10"/>
   </mergeCells>
   <conditionalFormatting sqref="L15:L39 I33:J33">
     <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
@@ -5495,8 +5498,8 @@
         <v>10</v>
       </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
+      <c r="C4" s="219"/>
+      <c r="D4" s="219"/>
       <c r="E4" s="40"/>
       <c r="G4" s="3"/>
       <c r="H4" s="7" t="s">
@@ -5511,9 +5514,9 @@
         <v>12</v>
       </c>
       <c r="B5" s="6"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
+      <c r="C5" s="210"/>
+      <c r="D5" s="210"/>
+      <c r="E5" s="210"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -5535,113 +5538,113 @@
         <v>15</v>
       </c>
       <c r="B7" s="6"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
+      <c r="C7" s="210"/>
+      <c r="D7" s="210"/>
+      <c r="E7" s="210"/>
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B8" s="2"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="170"/>
+      <c r="C8" s="222"/>
+      <c r="D8" s="222"/>
+      <c r="E8" s="222"/>
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="6"/>
-      <c r="C9" s="167"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
+      <c r="C9" s="210"/>
+      <c r="D9" s="210"/>
+      <c r="E9" s="210"/>
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="6"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
+      <c r="C10" s="210"/>
+      <c r="D10" s="210"/>
+      <c r="E10" s="210"/>
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="8"/>
       <c r="G12" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
     </row>
     <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="8"/>
       <c r="G13" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="8"/>
       <c r="G14" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="G15" s="159" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
     </row>
     <row r="16" spans="1:11" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -5699,7 +5702,7 @@
       </c>
     </row>
     <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="280" t="s">
+      <c r="A19" s="166" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="161"/>
@@ -5737,10 +5740,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="278" t="s">
+      <c r="A21" s="256" t="s">
         <v>69</v>
       </c>
-      <c r="B21" s="279"/>
+      <c r="B21" s="257"/>
       <c r="C21" s="141"/>
       <c r="D21" s="141"/>
       <c r="E21" s="141"/>
@@ -5870,18 +5873,18 @@
       <c r="D31" s="45"/>
       <c r="E31" s="45"/>
       <c r="F31" s="45"/>
-      <c r="G31" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H31" s="183"/>
-      <c r="I31" s="184" t="s">
+      <c r="G31" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H31" s="185"/>
+      <c r="I31" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="J31" s="185"/>
-      <c r="K31" s="186"/>
+      <c r="J31" s="187"/>
+      <c r="K31" s="188"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="187" t="s">
+      <c r="A32" s="170" t="s">
         <v>43</v>
       </c>
       <c r="B32" s="190" t="s">
@@ -5907,7 +5910,7 @@
       </c>
     </row>
     <row r="33" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="188"/>
+      <c r="A33" s="189"/>
       <c r="B33" s="190"/>
       <c r="C33" s="190" t="s">
         <v>1</v>
@@ -5917,14 +5920,14 @@
         <v>38</v>
       </c>
       <c r="F33" s="204"/>
-      <c r="G33" s="205"/>
-      <c r="H33" s="206"/>
+      <c r="G33" s="177"/>
+      <c r="H33" s="178"/>
       <c r="I33" s="197"/>
       <c r="J33" s="199"/>
       <c r="K33" s="201"/>
     </row>
     <row r="34" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="189"/>
+      <c r="A34" s="171"/>
       <c r="B34" s="191"/>
       <c r="C34" s="191" t="s">
         <v>6</v>
@@ -5934,27 +5937,27 @@
         <v>64</v>
       </c>
       <c r="F34" s="204"/>
-      <c r="G34" s="207"/>
-      <c r="H34" s="208"/>
+      <c r="G34" s="205"/>
+      <c r="H34" s="206"/>
       <c r="I34" s="198"/>
       <c r="J34" s="200"/>
       <c r="K34" s="202"/>
     </row>
     <row r="35" spans="1:11" ht="23.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="187" t="s">
+      <c r="A35" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="B35" s="212" t="s">
+      <c r="B35" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C35" s="213"/>
-      <c r="D35" s="214"/>
-      <c r="E35" s="215" t="s">
+      <c r="C35" s="173"/>
+      <c r="D35" s="174"/>
+      <c r="E35" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="F35" s="216"/>
-      <c r="G35" s="205"/>
-      <c r="H35" s="206"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="177"/>
+      <c r="H35" s="178"/>
       <c r="I35" s="46">
         <v>0.4</v>
       </c>
@@ -5965,18 +5968,18 @@
       </c>
     </row>
     <row r="36" spans="1:11" ht="66.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="189"/>
-      <c r="B36" s="217" t="s">
+      <c r="A36" s="171"/>
+      <c r="B36" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="218"/>
-      <c r="D36" s="219"/>
-      <c r="E36" s="220" t="s">
+      <c r="C36" s="180"/>
+      <c r="D36" s="181"/>
+      <c r="E36" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="F36" s="221"/>
-      <c r="G36" s="205"/>
-      <c r="H36" s="206"/>
+      <c r="F36" s="183"/>
+      <c r="G36" s="177"/>
+      <c r="H36" s="178"/>
       <c r="I36" s="46">
         <v>0.4</v>
       </c>
@@ -5990,16 +5993,16 @@
       <c r="A37" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B37" s="209" t="s">
+      <c r="B37" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C37" s="210"/>
-      <c r="D37" s="210"/>
-      <c r="E37" s="210"/>
-      <c r="F37" s="210"/>
-      <c r="G37" s="210"/>
-      <c r="H37" s="210"/>
-      <c r="I37" s="211"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
+      <c r="E37" s="168"/>
+      <c r="F37" s="168"/>
+      <c r="G37" s="168"/>
+      <c r="H37" s="168"/>
+      <c r="I37" s="169"/>
       <c r="J37" s="55"/>
       <c r="K37" s="152">
         <f>J37</f>
@@ -6086,18 +6089,18 @@
     <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="G32:H32"/>
+    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="B37:I37"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:F36"/>
+    <mergeCell ref="G36:H36"/>
     <mergeCell ref="H13:K13"/>
     <mergeCell ref="H14:K14"/>
     <mergeCell ref="G31:H31"/>
@@ -6111,21 +6114,21 @@
     <mergeCell ref="E34:F34"/>
     <mergeCell ref="G34:H34"/>
     <mergeCell ref="H15:K15"/>
-    <mergeCell ref="B37:I37"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:F36"/>
-    <mergeCell ref="G36:H36"/>
     <mergeCell ref="I31:K31"/>
     <mergeCell ref="A32:A34"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="G32:H32"/>
-    <mergeCell ref="I32:I34"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="H7:K7"/>
   </mergeCells>
   <conditionalFormatting sqref="K32:K40">
     <cfRule type="cellIs" dxfId="15" priority="3" operator="equal">
@@ -6160,7 +6163,7 @@
   </sheetPr>
   <dimension ref="A1:L48"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView showZeros="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
@@ -6215,9 +6218,9 @@
         <v>10</v>
       </c>
       <c r="B5" s="157"/>
-      <c r="C5" s="170"/>
-      <c r="D5" s="170"/>
-      <c r="E5" s="170"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="222"/>
       <c r="G5" s="3"/>
       <c r="H5" s="7" t="s">
         <v>13</v>
@@ -6245,10 +6248,10 @@
       <c r="G7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="168"/>
-      <c r="I7" s="169"/>
-      <c r="J7" s="169"/>
-      <c r="K7" s="169"/>
+      <c r="H7" s="220"/>
+      <c r="I7" s="221"/>
+      <c r="J7" s="221"/>
+      <c r="K7" s="221"/>
     </row>
     <row r="8" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="159" t="s">
@@ -6261,10 +6264,10 @@
       <c r="G8" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="H8" s="171"/>
-      <c r="I8" s="172"/>
-      <c r="J8" s="172"/>
-      <c r="K8" s="172"/>
+      <c r="H8" s="211"/>
+      <c r="I8" s="212"/>
+      <c r="J8" s="212"/>
+      <c r="K8" s="212"/>
     </row>
     <row r="9" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="157" t="s">
@@ -6277,10 +6280,10 @@
       <c r="G9" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="H9" s="171"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
+      <c r="H9" s="211"/>
+      <c r="I9" s="212"/>
+      <c r="J9" s="212"/>
+      <c r="K9" s="212"/>
     </row>
     <row r="10" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="159" t="s">
@@ -6293,10 +6296,10 @@
       <c r="G10" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="H10" s="171"/>
-      <c r="I10" s="172"/>
-      <c r="J10" s="172"/>
-      <c r="K10" s="172"/>
+      <c r="H10" s="211"/>
+      <c r="I10" s="212"/>
+      <c r="J10" s="212"/>
+      <c r="K10" s="212"/>
     </row>
     <row r="11" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="159" t="s">
@@ -6309,47 +6312,47 @@
       <c r="G11" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="171"/>
-      <c r="I11" s="172"/>
-      <c r="J11" s="172"/>
-      <c r="K11" s="172"/>
+      <c r="H11" s="211"/>
+      <c r="I11" s="212"/>
+      <c r="J11" s="212"/>
+      <c r="K11" s="212"/>
     </row>
     <row r="12" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G12" s="159" t="s">
         <v>23</v>
       </c>
-      <c r="H12" s="171"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
+      <c r="H12" s="211"/>
+      <c r="I12" s="212"/>
+      <c r="J12" s="212"/>
+      <c r="K12" s="212"/>
     </row>
     <row r="13" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G13" s="159" t="s">
         <v>143</v>
       </c>
-      <c r="H13" s="171"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
+      <c r="H13" s="211"/>
+      <c r="I13" s="212"/>
+      <c r="J13" s="212"/>
+      <c r="K13" s="212"/>
     </row>
     <row r="14" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G14" s="159" t="s">
         <v>144</v>
       </c>
-      <c r="H14" s="171"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
+      <c r="H14" s="211"/>
+      <c r="I14" s="212"/>
+      <c r="J14" s="212"/>
+      <c r="K14" s="212"/>
     </row>
     <row r="15" spans="1:11" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="8"/>
       <c r="G15" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="H15" s="171"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
+      <c r="H15" s="211"/>
+      <c r="I15" s="212"/>
+      <c r="J15" s="212"/>
+      <c r="K15" s="212"/>
     </row>
     <row r="16" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="9"/>
@@ -6364,31 +6367,31 @@
       <c r="D17" s="45"/>
       <c r="E17" s="45"/>
       <c r="F17" s="45"/>
-      <c r="G17" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H17" s="183"/>
-      <c r="I17" s="184" t="s">
+      <c r="G17" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="185"/>
+      <c r="I17" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="J17" s="185"/>
-      <c r="K17" s="186"/>
+      <c r="J17" s="187"/>
+      <c r="K17" s="188"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A18" s="222" t="s">
+      <c r="A18" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="B18" s="225" t="s">
+      <c r="B18" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="C18" s="225" t="s">
+      <c r="C18" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="225"/>
-      <c r="E18" s="227" t="s">
+      <c r="D18" s="250"/>
+      <c r="E18" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="F18" s="228"/>
+      <c r="F18" s="252"/>
       <c r="G18" s="194"/>
       <c r="H18" s="195"/>
       <c r="I18" s="196">
@@ -6403,54 +6406,54 @@
       </c>
     </row>
     <row r="19" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="223"/>
-      <c r="B19" s="225"/>
-      <c r="C19" s="225" t="s">
+      <c r="A19" s="249"/>
+      <c r="B19" s="250"/>
+      <c r="C19" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="D19" s="225"/>
-      <c r="E19" s="229" t="s">
+      <c r="D19" s="250"/>
+      <c r="E19" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="230"/>
-      <c r="G19" s="205"/>
-      <c r="H19" s="206"/>
+      <c r="F19" s="254"/>
+      <c r="G19" s="177"/>
+      <c r="H19" s="178"/>
       <c r="I19" s="197"/>
       <c r="J19" s="199"/>
       <c r="K19" s="201"/>
     </row>
     <row r="20" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="224"/>
-      <c r="B20" s="226"/>
-      <c r="C20" s="226" t="s">
+      <c r="A20" s="238"/>
+      <c r="B20" s="251"/>
+      <c r="C20" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="D20" s="226"/>
-      <c r="E20" s="229" t="s">
+      <c r="D20" s="251"/>
+      <c r="E20" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="230"/>
-      <c r="G20" s="207"/>
-      <c r="H20" s="208"/>
+      <c r="F20" s="254"/>
+      <c r="G20" s="205"/>
+      <c r="H20" s="206"/>
       <c r="I20" s="198"/>
       <c r="J20" s="200"/>
       <c r="K20" s="202"/>
     </row>
     <row r="21" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="222" t="s">
+      <c r="A21" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="231" t="s">
+      <c r="B21" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="232"/>
-      <c r="D21" s="233"/>
-      <c r="E21" s="227" t="s">
+      <c r="C21" s="240"/>
+      <c r="D21" s="241"/>
+      <c r="E21" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="F21" s="234"/>
-      <c r="G21" s="205"/>
-      <c r="H21" s="206"/>
+      <c r="F21" s="243"/>
+      <c r="G21" s="177"/>
+      <c r="H21" s="178"/>
       <c r="I21" s="46">
         <v>0.4</v>
       </c>
@@ -6464,18 +6467,18 @@
       <c r="L21" s="26"/>
     </row>
     <row r="22" spans="1:12" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="224"/>
-      <c r="B22" s="235" t="s">
+      <c r="A22" s="238"/>
+      <c r="B22" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="236"/>
-      <c r="D22" s="237"/>
-      <c r="E22" s="238" t="s">
+      <c r="C22" s="245"/>
+      <c r="D22" s="246"/>
+      <c r="E22" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="239"/>
-      <c r="G22" s="205"/>
-      <c r="H22" s="206"/>
+      <c r="F22" s="248"/>
+      <c r="G22" s="177"/>
+      <c r="H22" s="178"/>
       <c r="I22" s="46">
         <v>0.4</v>
       </c>
@@ -6491,16 +6494,16 @@
       <c r="A23" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B23" s="209" t="s">
+      <c r="B23" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C23" s="210"/>
-      <c r="D23" s="210"/>
-      <c r="E23" s="210"/>
-      <c r="F23" s="210"/>
-      <c r="G23" s="210"/>
-      <c r="H23" s="210"/>
-      <c r="I23" s="211"/>
+      <c r="C23" s="168"/>
+      <c r="D23" s="168"/>
+      <c r="E23" s="168"/>
+      <c r="F23" s="168"/>
+      <c r="G23" s="168"/>
+      <c r="H23" s="168"/>
+      <c r="I23" s="169"/>
       <c r="J23" s="47"/>
       <c r="K23" s="146">
         <v>0</v>
@@ -6658,88 +6661,88 @@
       </c>
     </row>
     <row r="32" spans="1:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="243" t="s">
+      <c r="A32" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="B32" s="244"/>
-      <c r="C32" s="244"/>
-      <c r="D32" s="244"/>
-      <c r="E32" s="244"/>
-      <c r="F32" s="244"/>
-      <c r="G32" s="244"/>
-      <c r="H32" s="244"/>
-      <c r="I32" s="244"/>
-      <c r="J32" s="244"/>
-      <c r="K32" s="245"/>
+      <c r="B32" s="227"/>
+      <c r="C32" s="227"/>
+      <c r="D32" s="227"/>
+      <c r="E32" s="227"/>
+      <c r="F32" s="227"/>
+      <c r="G32" s="227"/>
+      <c r="H32" s="227"/>
+      <c r="I32" s="227"/>
+      <c r="J32" s="227"/>
+      <c r="K32" s="228"/>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A33" s="246"/>
-      <c r="B33" s="247"/>
-      <c r="C33" s="247"/>
-      <c r="D33" s="247"/>
-      <c r="E33" s="247"/>
-      <c r="F33" s="247"/>
-      <c r="G33" s="247"/>
-      <c r="H33" s="247"/>
-      <c r="I33" s="247"/>
-      <c r="J33" s="247"/>
-      <c r="K33" s="248"/>
+      <c r="A33" s="229"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="230"/>
+      <c r="H33" s="230"/>
+      <c r="I33" s="230"/>
+      <c r="J33" s="230"/>
+      <c r="K33" s="231"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A34" s="246"/>
-      <c r="B34" s="247"/>
-      <c r="C34" s="247"/>
-      <c r="D34" s="247"/>
-      <c r="E34" s="247"/>
-      <c r="F34" s="247"/>
-      <c r="G34" s="247"/>
-      <c r="H34" s="247"/>
-      <c r="I34" s="247"/>
-      <c r="J34" s="247"/>
-      <c r="K34" s="248"/>
+      <c r="A34" s="229"/>
+      <c r="B34" s="230"/>
+      <c r="C34" s="230"/>
+      <c r="D34" s="230"/>
+      <c r="E34" s="230"/>
+      <c r="F34" s="230"/>
+      <c r="G34" s="230"/>
+      <c r="H34" s="230"/>
+      <c r="I34" s="230"/>
+      <c r="J34" s="230"/>
+      <c r="K34" s="231"/>
     </row>
     <row r="35" spans="1:11" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="246"/>
-      <c r="B35" s="247"/>
-      <c r="C35" s="247"/>
-      <c r="D35" s="247"/>
-      <c r="E35" s="247"/>
-      <c r="F35" s="247"/>
-      <c r="G35" s="247"/>
-      <c r="H35" s="247"/>
-      <c r="I35" s="247"/>
-      <c r="J35" s="247"/>
-      <c r="K35" s="248"/>
+      <c r="A35" s="229"/>
+      <c r="B35" s="230"/>
+      <c r="C35" s="230"/>
+      <c r="D35" s="230"/>
+      <c r="E35" s="230"/>
+      <c r="F35" s="230"/>
+      <c r="G35" s="230"/>
+      <c r="H35" s="230"/>
+      <c r="I35" s="230"/>
+      <c r="J35" s="230"/>
+      <c r="K35" s="231"/>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A36" s="249"/>
-      <c r="B36" s="250"/>
-      <c r="C36" s="250"/>
-      <c r="D36" s="250"/>
-      <c r="E36" s="250"/>
-      <c r="F36" s="250"/>
-      <c r="G36" s="250"/>
-      <c r="H36" s="250"/>
-      <c r="I36" s="250"/>
-      <c r="J36" s="250"/>
-      <c r="K36" s="251"/>
+      <c r="A36" s="232"/>
+      <c r="B36" s="233"/>
+      <c r="C36" s="233"/>
+      <c r="D36" s="233"/>
+      <c r="E36" s="233"/>
+      <c r="F36" s="233"/>
+      <c r="G36" s="233"/>
+      <c r="H36" s="233"/>
+      <c r="I36" s="233"/>
+      <c r="J36" s="233"/>
+      <c r="K36" s="234"/>
     </row>
     <row r="37" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="38" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A38" s="252" t="s">
+      <c r="A38" s="235" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="252"/>
-      <c r="C38" s="252"/>
-      <c r="D38" s="252"/>
-      <c r="E38" s="252"/>
-      <c r="F38" s="252"/>
-      <c r="G38" s="252"/>
-      <c r="H38" s="253">
+      <c r="B38" s="235"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="235"/>
+      <c r="E38" s="235"/>
+      <c r="F38" s="235"/>
+      <c r="G38" s="235"/>
+      <c r="H38" s="236">
         <f>K30</f>
         <v>0</v>
       </c>
-      <c r="I38" s="253"/>
+      <c r="I38" s="236"/>
       <c r="J38" s="33" t="s">
         <v>46</v>
       </c>
@@ -6749,20 +6752,20 @@
       </c>
     </row>
     <row r="39" spans="1:11" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="252" t="s">
+      <c r="A39" s="235" t="s">
         <v>54</v>
       </c>
-      <c r="B39" s="252"/>
-      <c r="C39" s="252"/>
-      <c r="D39" s="252"/>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
-      <c r="G39" s="252"/>
-      <c r="H39" s="253">
+      <c r="B39" s="235"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="235"/>
+      <c r="E39" s="235"/>
+      <c r="F39" s="235"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="236">
         <f>K24</f>
         <v>0</v>
       </c>
-      <c r="I39" s="253"/>
+      <c r="I39" s="236"/>
       <c r="J39" s="52" t="s">
         <v>62</v>
       </c>
@@ -6784,14 +6787,14 @@
       </c>
     </row>
     <row r="41" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E41" s="240" t="s">
+      <c r="E41" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="F41" s="241"/>
-      <c r="G41" s="241"/>
-      <c r="H41" s="241"/>
-      <c r="I41" s="241"/>
-      <c r="J41" s="242"/>
+      <c r="F41" s="224"/>
+      <c r="G41" s="224"/>
+      <c r="H41" s="224"/>
+      <c r="I41" s="224"/>
+      <c r="J41" s="225"/>
       <c r="K41" s="53">
         <f>K40/4</f>
         <v>0</v>
@@ -6859,6 +6862,30 @@
     </row>
   </sheetData>
   <mergeCells count="40">
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="I17:K17"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="I18:I20"/>
+    <mergeCell ref="J18:J20"/>
+    <mergeCell ref="K18:K20"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="C20:D20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="G20:H20"/>
     <mergeCell ref="C5:E5"/>
     <mergeCell ref="E41:J41"/>
     <mergeCell ref="B23:I23"/>
@@ -6875,30 +6902,6 @@
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="G22:H22"/>
     <mergeCell ref="G17:H17"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="I18:I20"/>
-    <mergeCell ref="J18:J20"/>
-    <mergeCell ref="K18:K20"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="H15:K15"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="H14:K14"/>
   </mergeCells>
   <conditionalFormatting sqref="H39:I39 K18:K45">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="equal">
@@ -6979,9 +6982,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -6996,10 +6999,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -7013,10 +7016,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7039,30 +7042,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="274"/>
+      <c r="F8" s="274"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="255"/>
-      <c r="F9" s="255"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="273"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -7209,19 +7212,19 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="257" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="258"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="184" t="s">
+      <c r="G23" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="265"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="185"/>
-      <c r="L23" s="186"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="188"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="187" t="s">
+      <c r="A24" s="170" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="190" t="s">
@@ -7234,10 +7237,10 @@
       <c r="E24" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="260"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="263"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="269"/>
+      <c r="I24" s="270"/>
       <c r="J24" s="196">
         <v>0.2</v>
       </c>
@@ -7248,7 +7251,7 @@
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
+      <c r="A25" s="189"/>
       <c r="B25" s="190"/>
       <c r="C25" s="190" t="s">
         <v>1</v>
@@ -7258,15 +7261,15 @@
         <v>38</v>
       </c>
       <c r="F25" s="204"/>
-      <c r="G25" s="266"/>
-      <c r="H25" s="267"/>
-      <c r="I25" s="268"/>
+      <c r="G25" s="261"/>
+      <c r="H25" s="262"/>
+      <c r="I25" s="263"/>
       <c r="J25" s="197"/>
       <c r="K25" s="199"/>
-      <c r="L25" s="264"/>
+      <c r="L25" s="271"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="189"/>
+      <c r="A26" s="171"/>
       <c r="B26" s="191"/>
       <c r="C26" s="191" t="s">
         <v>79</v>
@@ -7276,29 +7279,29 @@
         <v>64</v>
       </c>
       <c r="F26" s="204"/>
-      <c r="G26" s="266"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="268"/>
+      <c r="G26" s="261"/>
+      <c r="H26" s="262"/>
+      <c r="I26" s="263"/>
       <c r="J26" s="198"/>
       <c r="K26" s="200"/>
-      <c r="L26" s="265"/>
+      <c r="L26" s="272"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215" t="s">
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="216"/>
-      <c r="G27" s="269"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="271"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="260"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -7310,19 +7313,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="189"/>
-      <c r="B28" s="217" t="s">
+      <c r="A28" s="171"/>
+      <c r="B28" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="218"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="220" t="s">
+      <c r="C28" s="180"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="221"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="267"/>
-      <c r="I28" s="268"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="261"/>
+      <c r="H28" s="262"/>
+      <c r="I28" s="263"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -7336,16 +7339,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="209" t="s">
+      <c r="B29" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="211"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="169"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -7436,14 +7439,12 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B29:I29"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G23:I23"/>
     <mergeCell ref="J23:L23"/>
     <mergeCell ref="A24:A26"/>
@@ -7460,12 +7461,14 @@
     <mergeCell ref="C26:D26"/>
     <mergeCell ref="E26:F26"/>
     <mergeCell ref="G26:I26"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="G28:I28"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="9" priority="2" operator="equal">
@@ -7542,9 +7545,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="101"/>
-      <c r="C4" s="273"/>
-      <c r="D4" s="273"/>
-      <c r="E4" s="273"/>
+      <c r="C4" s="278"/>
+      <c r="D4" s="278"/>
+      <c r="E4" s="278"/>
       <c r="F4" s="105"/>
       <c r="H4" s="70" t="s">
         <v>11</v>
@@ -7559,10 +7562,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="103"/>
-      <c r="C5" s="272"/>
-      <c r="D5" s="272"/>
-      <c r="E5" s="272"/>
-      <c r="F5" s="272"/>
+      <c r="C5" s="277"/>
+      <c r="D5" s="277"/>
+      <c r="E5" s="277"/>
+      <c r="F5" s="277"/>
       <c r="H5" s="70" t="s">
         <v>13</v>
       </c>
@@ -7576,10 +7579,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="103"/>
-      <c r="C6" s="272"/>
-      <c r="D6" s="272"/>
-      <c r="E6" s="272"/>
-      <c r="F6" s="272"/>
+      <c r="C6" s="277"/>
+      <c r="D6" s="277"/>
+      <c r="E6" s="277"/>
+      <c r="F6" s="277"/>
       <c r="H6" s="60"/>
       <c r="I6" s="60"/>
       <c r="J6" s="60"/>
@@ -7608,30 +7611,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="101"/>
-      <c r="C8" s="273"/>
-      <c r="D8" s="273"/>
-      <c r="E8" s="273"/>
-      <c r="F8" s="273"/>
+      <c r="C8" s="278"/>
+      <c r="D8" s="278"/>
+      <c r="E8" s="278"/>
+      <c r="F8" s="278"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="103" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="103"/>
-      <c r="C9" s="272"/>
-      <c r="D9" s="272"/>
-      <c r="E9" s="272"/>
-      <c r="F9" s="272"/>
+      <c r="C9" s="277"/>
+      <c r="D9" s="277"/>
+      <c r="E9" s="277"/>
+      <c r="F9" s="277"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="103" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="103"/>
-      <c r="C10" s="272"/>
-      <c r="D10" s="272"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="272"/>
+      <c r="C10" s="277"/>
+      <c r="D10" s="277"/>
+      <c r="E10" s="277"/>
+      <c r="F10" s="277"/>
     </row>
     <row r="11" spans="1:12" ht="33.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
@@ -7646,31 +7649,31 @@
       <c r="D13" s="45"/>
       <c r="E13" s="45"/>
       <c r="F13" s="45"/>
-      <c r="G13" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="H13" s="183"/>
-      <c r="I13" s="184" t="s">
+      <c r="G13" s="184" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="185"/>
+      <c r="I13" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="J13" s="185"/>
-      <c r="K13" s="186"/>
+      <c r="J13" s="187"/>
+      <c r="K13" s="188"/>
     </row>
     <row r="14" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="222" t="s">
+      <c r="A14" s="237" t="s">
         <v>67</v>
       </c>
-      <c r="B14" s="225" t="s">
+      <c r="B14" s="250" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="225" t="s">
+      <c r="C14" s="250" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="225"/>
-      <c r="E14" s="227" t="s">
+      <c r="D14" s="250"/>
+      <c r="E14" s="242" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="228"/>
+      <c r="F14" s="252"/>
       <c r="G14" s="194"/>
       <c r="H14" s="195"/>
       <c r="I14" s="196">
@@ -7685,54 +7688,54 @@
       </c>
     </row>
     <row r="15" spans="1:12" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="223"/>
-      <c r="B15" s="225"/>
-      <c r="C15" s="225" t="s">
+      <c r="A15" s="249"/>
+      <c r="B15" s="250"/>
+      <c r="C15" s="250" t="s">
         <v>1</v>
       </c>
-      <c r="D15" s="225"/>
-      <c r="E15" s="229" t="s">
+      <c r="D15" s="250"/>
+      <c r="E15" s="253" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="230"/>
-      <c r="G15" s="205"/>
-      <c r="H15" s="206"/>
+      <c r="F15" s="254"/>
+      <c r="G15" s="177"/>
+      <c r="H15" s="178"/>
       <c r="I15" s="197"/>
       <c r="J15" s="199"/>
       <c r="K15" s="201"/>
     </row>
     <row r="16" spans="1:12" s="11" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="224"/>
-      <c r="B16" s="226"/>
-      <c r="C16" s="226" t="s">
+      <c r="A16" s="238"/>
+      <c r="B16" s="251"/>
+      <c r="C16" s="251" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="226"/>
-      <c r="E16" s="229" t="s">
+      <c r="D16" s="251"/>
+      <c r="E16" s="253" t="s">
         <v>64</v>
       </c>
-      <c r="F16" s="230"/>
-      <c r="G16" s="207"/>
-      <c r="H16" s="208"/>
+      <c r="F16" s="254"/>
+      <c r="G16" s="205"/>
+      <c r="H16" s="206"/>
       <c r="I16" s="198"/>
       <c r="J16" s="200"/>
       <c r="K16" s="202"/>
     </row>
     <row r="17" spans="1:12" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="222" t="s">
+      <c r="A17" s="237" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="231" t="s">
+      <c r="B17" s="239" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="232"/>
-      <c r="D17" s="233"/>
-      <c r="E17" s="227" t="s">
+      <c r="C17" s="240"/>
+      <c r="D17" s="241"/>
+      <c r="E17" s="242" t="s">
         <v>40</v>
       </c>
-      <c r="F17" s="234"/>
-      <c r="G17" s="205"/>
-      <c r="H17" s="206"/>
+      <c r="F17" s="243"/>
+      <c r="G17" s="177"/>
+      <c r="H17" s="178"/>
       <c r="I17" s="46">
         <v>0.4</v>
       </c>
@@ -7746,18 +7749,18 @@
       <c r="L17" s="26"/>
     </row>
     <row r="18" spans="1:12" s="11" customFormat="1" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="224"/>
-      <c r="B18" s="235" t="s">
+      <c r="A18" s="238"/>
+      <c r="B18" s="244" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="236"/>
-      <c r="D18" s="237"/>
-      <c r="E18" s="238" t="s">
+      <c r="C18" s="245"/>
+      <c r="D18" s="246"/>
+      <c r="E18" s="247" t="s">
         <v>39</v>
       </c>
-      <c r="F18" s="239"/>
-      <c r="G18" s="205"/>
-      <c r="H18" s="206"/>
+      <c r="F18" s="248"/>
+      <c r="G18" s="177"/>
+      <c r="H18" s="178"/>
       <c r="I18" s="46">
         <v>0.4</v>
       </c>
@@ -7773,16 +7776,16 @@
       <c r="A19" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B19" s="209" t="s">
+      <c r="B19" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="210"/>
-      <c r="D19" s="210"/>
-      <c r="E19" s="210"/>
-      <c r="F19" s="210"/>
-      <c r="G19" s="210"/>
-      <c r="H19" s="210"/>
-      <c r="I19" s="211"/>
+      <c r="C19" s="168"/>
+      <c r="D19" s="168"/>
+      <c r="E19" s="168"/>
+      <c r="F19" s="168"/>
+      <c r="G19" s="168"/>
+      <c r="H19" s="168"/>
+      <c r="I19" s="169"/>
       <c r="J19" s="47"/>
       <c r="K19" s="145">
         <v>0</v>
@@ -7868,88 +7871,88 @@
     </row>
     <row r="25" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="26" spans="1:12" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="243" t="s">
+      <c r="A26" s="226" t="s">
         <v>49</v>
       </c>
-      <c r="B26" s="244"/>
-      <c r="C26" s="244"/>
-      <c r="D26" s="244"/>
-      <c r="E26" s="244"/>
-      <c r="F26" s="244"/>
-      <c r="G26" s="244"/>
-      <c r="H26" s="244"/>
-      <c r="I26" s="244"/>
-      <c r="J26" s="244"/>
-      <c r="K26" s="245"/>
+      <c r="B26" s="227"/>
+      <c r="C26" s="227"/>
+      <c r="D26" s="227"/>
+      <c r="E26" s="227"/>
+      <c r="F26" s="227"/>
+      <c r="G26" s="227"/>
+      <c r="H26" s="227"/>
+      <c r="I26" s="227"/>
+      <c r="J26" s="227"/>
+      <c r="K26" s="228"/>
     </row>
     <row r="27" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="246"/>
-      <c r="B27" s="247"/>
-      <c r="C27" s="247"/>
-      <c r="D27" s="247"/>
-      <c r="E27" s="247"/>
-      <c r="F27" s="247"/>
-      <c r="G27" s="247"/>
-      <c r="H27" s="247"/>
-      <c r="I27" s="247"/>
-      <c r="J27" s="247"/>
-      <c r="K27" s="248"/>
+      <c r="A27" s="229"/>
+      <c r="B27" s="230"/>
+      <c r="C27" s="230"/>
+      <c r="D27" s="230"/>
+      <c r="E27" s="230"/>
+      <c r="F27" s="230"/>
+      <c r="G27" s="230"/>
+      <c r="H27" s="230"/>
+      <c r="I27" s="230"/>
+      <c r="J27" s="230"/>
+      <c r="K27" s="231"/>
     </row>
     <row r="28" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="246"/>
-      <c r="B28" s="247"/>
-      <c r="C28" s="247"/>
-      <c r="D28" s="247"/>
-      <c r="E28" s="247"/>
-      <c r="F28" s="247"/>
-      <c r="G28" s="247"/>
-      <c r="H28" s="247"/>
-      <c r="I28" s="247"/>
-      <c r="J28" s="247"/>
-      <c r="K28" s="248"/>
+      <c r="A28" s="229"/>
+      <c r="B28" s="230"/>
+      <c r="C28" s="230"/>
+      <c r="D28" s="230"/>
+      <c r="E28" s="230"/>
+      <c r="F28" s="230"/>
+      <c r="G28" s="230"/>
+      <c r="H28" s="230"/>
+      <c r="I28" s="230"/>
+      <c r="J28" s="230"/>
+      <c r="K28" s="231"/>
     </row>
     <row r="29" spans="1:12" s="11" customFormat="1" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="246"/>
-      <c r="B29" s="247"/>
-      <c r="C29" s="247"/>
-      <c r="D29" s="247"/>
-      <c r="E29" s="247"/>
-      <c r="F29" s="247"/>
-      <c r="G29" s="247"/>
-      <c r="H29" s="247"/>
-      <c r="I29" s="247"/>
-      <c r="J29" s="247"/>
-      <c r="K29" s="248"/>
+      <c r="A29" s="229"/>
+      <c r="B29" s="230"/>
+      <c r="C29" s="230"/>
+      <c r="D29" s="230"/>
+      <c r="E29" s="230"/>
+      <c r="F29" s="230"/>
+      <c r="G29" s="230"/>
+      <c r="H29" s="230"/>
+      <c r="I29" s="230"/>
+      <c r="J29" s="230"/>
+      <c r="K29" s="231"/>
     </row>
     <row r="30" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="249"/>
-      <c r="B30" s="250"/>
-      <c r="C30" s="250"/>
-      <c r="D30" s="250"/>
-      <c r="E30" s="250"/>
-      <c r="F30" s="250"/>
-      <c r="G30" s="250"/>
-      <c r="H30" s="250"/>
-      <c r="I30" s="250"/>
-      <c r="J30" s="250"/>
-      <c r="K30" s="251"/>
+      <c r="A30" s="232"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="233"/>
+      <c r="D30" s="233"/>
+      <c r="E30" s="233"/>
+      <c r="F30" s="233"/>
+      <c r="G30" s="233"/>
+      <c r="H30" s="233"/>
+      <c r="I30" s="233"/>
+      <c r="J30" s="233"/>
+      <c r="K30" s="234"/>
     </row>
     <row r="31" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A32" s="252" t="s">
+      <c r="A32" s="235" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="252"/>
-      <c r="C32" s="252"/>
-      <c r="D32" s="252"/>
-      <c r="E32" s="252"/>
-      <c r="F32" s="252"/>
-      <c r="G32" s="252"/>
-      <c r="H32" s="274">
+      <c r="B32" s="235"/>
+      <c r="C32" s="235"/>
+      <c r="D32" s="235"/>
+      <c r="E32" s="235"/>
+      <c r="F32" s="235"/>
+      <c r="G32" s="235"/>
+      <c r="H32" s="275">
         <f>G24</f>
         <v>0</v>
       </c>
-      <c r="I32" s="274"/>
+      <c r="I32" s="275"/>
       <c r="J32" s="33" t="s">
         <v>46</v>
       </c>
@@ -7959,20 +7962,20 @@
       </c>
     </row>
     <row r="33" spans="1:12" s="11" customFormat="1" ht="13.5" x14ac:dyDescent="0.3">
-      <c r="A33" s="252" t="s">
+      <c r="A33" s="235" t="s">
         <v>91</v>
       </c>
-      <c r="B33" s="252"/>
-      <c r="C33" s="252"/>
-      <c r="D33" s="252"/>
-      <c r="E33" s="252"/>
-      <c r="F33" s="252"/>
-      <c r="G33" s="252"/>
-      <c r="H33" s="253">
+      <c r="B33" s="235"/>
+      <c r="C33" s="235"/>
+      <c r="D33" s="235"/>
+      <c r="E33" s="235"/>
+      <c r="F33" s="235"/>
+      <c r="G33" s="235"/>
+      <c r="H33" s="236">
         <f>K20</f>
         <v>0</v>
       </c>
-      <c r="I33" s="275"/>
+      <c r="I33" s="276"/>
       <c r="J33" s="52" t="s">
         <v>62</v>
       </c>
@@ -7994,14 +7997,14 @@
       </c>
     </row>
     <row r="35" spans="1:12" s="11" customFormat="1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E35" s="240" t="s">
+      <c r="E35" s="223" t="s">
         <v>63</v>
       </c>
-      <c r="F35" s="241"/>
-      <c r="G35" s="241"/>
-      <c r="H35" s="241"/>
-      <c r="I35" s="241"/>
-      <c r="J35" s="242"/>
+      <c r="F35" s="224"/>
+      <c r="G35" s="224"/>
+      <c r="H35" s="224"/>
+      <c r="I35" s="224"/>
+      <c r="J35" s="225"/>
       <c r="K35" s="53">
         <f>K34/4</f>
         <v>0</v>
@@ -8056,20 +8059,12 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="E35:J35"/>
-    <mergeCell ref="B19:I19"/>
-    <mergeCell ref="A26:K30"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="G13:H13"/>
     <mergeCell ref="I13:K13"/>
     <mergeCell ref="A14:A16"/>
@@ -8086,12 +8081,20 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="E16:F16"/>
     <mergeCell ref="G16:H16"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="E35:J35"/>
+    <mergeCell ref="B19:I19"/>
+    <mergeCell ref="A26:K30"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="H33:I33"/>
   </mergeCells>
   <conditionalFormatting sqref="H33:I33 K14:K21 J22:J24 K25:K40">
     <cfRule type="cellIs" dxfId="7" priority="3" operator="equal">
@@ -8172,9 +8175,9 @@
         <v>10</v>
       </c>
       <c r="B4" s="66"/>
-      <c r="C4" s="256"/>
-      <c r="D4" s="256"/>
-      <c r="E4" s="256"/>
+      <c r="C4" s="274"/>
+      <c r="D4" s="274"/>
+      <c r="E4" s="274"/>
       <c r="F4" s="94"/>
       <c r="H4" s="92"/>
       <c r="I4" s="91" t="s">
@@ -8189,10 +8192,10 @@
         <v>12</v>
       </c>
       <c r="B5" s="78"/>
-      <c r="C5" s="255"/>
-      <c r="D5" s="255"/>
-      <c r="E5" s="255"/>
-      <c r="F5" s="255"/>
+      <c r="C5" s="273"/>
+      <c r="D5" s="273"/>
+      <c r="E5" s="273"/>
+      <c r="F5" s="273"/>
       <c r="H5" s="92"/>
       <c r="I5" s="91" t="s">
         <v>13</v>
@@ -8206,10 +8209,10 @@
         <v>14</v>
       </c>
       <c r="B6" s="78"/>
-      <c r="C6" s="255"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="255"/>
-      <c r="F6" s="255"/>
+      <c r="C6" s="273"/>
+      <c r="D6" s="273"/>
+      <c r="E6" s="273"/>
+      <c r="F6" s="273"/>
       <c r="K6" s="88"/>
     </row>
     <row r="7" spans="1:12" ht="17.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -8232,30 +8235,30 @@
         <v>17</v>
       </c>
       <c r="B8" s="66"/>
-      <c r="C8" s="256"/>
-      <c r="D8" s="256"/>
-      <c r="E8" s="256"/>
-      <c r="F8" s="256"/>
+      <c r="C8" s="274"/>
+      <c r="D8" s="274"/>
+      <c r="E8" s="274"/>
+      <c r="F8" s="274"/>
     </row>
     <row r="9" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="78" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="78"/>
-      <c r="C9" s="255"/>
-      <c r="D9" s="255"/>
-      <c r="E9" s="255"/>
-      <c r="F9" s="255"/>
+      <c r="C9" s="273"/>
+      <c r="D9" s="273"/>
+      <c r="E9" s="273"/>
+      <c r="F9" s="273"/>
     </row>
     <row r="10" spans="1:12" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="78" t="s">
         <v>30</v>
       </c>
       <c r="B10" s="78"/>
-      <c r="C10" s="255"/>
-      <c r="D10" s="255"/>
-      <c r="E10" s="255"/>
-      <c r="F10" s="255"/>
+      <c r="C10" s="273"/>
+      <c r="D10" s="273"/>
+      <c r="E10" s="273"/>
+      <c r="F10" s="273"/>
     </row>
     <row r="11" spans="1:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:12" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8402,19 +8405,19 @@
       <c r="D23" s="45"/>
       <c r="E23" s="45"/>
       <c r="F23" s="45"/>
-      <c r="G23" s="257" t="s">
-        <v>0</v>
-      </c>
-      <c r="H23" s="258"/>
-      <c r="I23" s="259"/>
-      <c r="J23" s="184" t="s">
+      <c r="G23" s="264" t="s">
+        <v>0</v>
+      </c>
+      <c r="H23" s="265"/>
+      <c r="I23" s="266"/>
+      <c r="J23" s="186" t="s">
         <v>7</v>
       </c>
-      <c r="K23" s="185"/>
-      <c r="L23" s="186"/>
+      <c r="K23" s="187"/>
+      <c r="L23" s="188"/>
     </row>
     <row r="24" spans="1:13" s="11" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="187" t="s">
+      <c r="A24" s="170" t="s">
         <v>43</v>
       </c>
       <c r="B24" s="190" t="s">
@@ -8427,21 +8430,21 @@
       <c r="E24" s="192" t="s">
         <v>8</v>
       </c>
-      <c r="F24" s="260"/>
-      <c r="G24" s="261"/>
-      <c r="H24" s="262"/>
-      <c r="I24" s="263"/>
+      <c r="F24" s="267"/>
+      <c r="G24" s="268"/>
+      <c r="H24" s="269"/>
+      <c r="I24" s="270"/>
       <c r="J24" s="196">
         <v>0.2</v>
       </c>
-      <c r="K24" s="276"/>
+      <c r="K24" s="279"/>
       <c r="L24" s="202">
         <f>K24*0.2</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:13" s="11" customFormat="1" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="188"/>
+      <c r="A25" s="189"/>
       <c r="B25" s="190"/>
       <c r="C25" s="190" t="s">
         <v>1</v>
@@ -8451,15 +8454,15 @@
         <v>38</v>
       </c>
       <c r="F25" s="204"/>
-      <c r="G25" s="266"/>
-      <c r="H25" s="267"/>
-      <c r="I25" s="268"/>
+      <c r="G25" s="261"/>
+      <c r="H25" s="262"/>
+      <c r="I25" s="263"/>
       <c r="J25" s="197"/>
-      <c r="K25" s="276"/>
-      <c r="L25" s="264"/>
+      <c r="K25" s="279"/>
+      <c r="L25" s="271"/>
     </row>
     <row r="26" spans="1:13" s="11" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="189"/>
+      <c r="A26" s="171"/>
       <c r="B26" s="191"/>
       <c r="C26" s="191" t="s">
         <v>79</v>
@@ -8469,29 +8472,29 @@
         <v>64</v>
       </c>
       <c r="F26" s="204"/>
-      <c r="G26" s="266"/>
-      <c r="H26" s="267"/>
-      <c r="I26" s="268"/>
+      <c r="G26" s="261"/>
+      <c r="H26" s="262"/>
+      <c r="I26" s="263"/>
       <c r="J26" s="198"/>
-      <c r="K26" s="277"/>
-      <c r="L26" s="265"/>
+      <c r="K26" s="280"/>
+      <c r="L26" s="272"/>
     </row>
     <row r="27" spans="1:13" s="11" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="187" t="s">
+      <c r="A27" s="170" t="s">
         <v>60</v>
       </c>
-      <c r="B27" s="212" t="s">
+      <c r="B27" s="172" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="215" t="s">
+      <c r="C27" s="173"/>
+      <c r="D27" s="174"/>
+      <c r="E27" s="175" t="s">
         <v>40</v>
       </c>
-      <c r="F27" s="216"/>
-      <c r="G27" s="269"/>
-      <c r="H27" s="270"/>
-      <c r="I27" s="271"/>
+      <c r="F27" s="176"/>
+      <c r="G27" s="258"/>
+      <c r="H27" s="259"/>
+      <c r="I27" s="260"/>
       <c r="J27" s="46">
         <v>0.4</v>
       </c>
@@ -8503,19 +8506,19 @@
       <c r="M27" s="26"/>
     </row>
     <row r="28" spans="1:13" s="11" customFormat="1" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="189"/>
-      <c r="B28" s="217" t="s">
+      <c r="A28" s="171"/>
+      <c r="B28" s="179" t="s">
         <v>2</v>
       </c>
-      <c r="C28" s="218"/>
-      <c r="D28" s="219"/>
-      <c r="E28" s="220" t="s">
+      <c r="C28" s="180"/>
+      <c r="D28" s="181"/>
+      <c r="E28" s="182" t="s">
         <v>39</v>
       </c>
-      <c r="F28" s="221"/>
-      <c r="G28" s="266"/>
-      <c r="H28" s="267"/>
-      <c r="I28" s="268"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="261"/>
+      <c r="H28" s="262"/>
+      <c r="I28" s="263"/>
       <c r="J28" s="46">
         <v>0.4</v>
       </c>
@@ -8529,16 +8532,16 @@
       <c r="A29" s="48" t="s">
         <v>41</v>
       </c>
-      <c r="B29" s="209" t="s">
+      <c r="B29" s="167" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="210"/>
-      <c r="D29" s="210"/>
-      <c r="E29" s="210"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="210"/>
-      <c r="H29" s="210"/>
-      <c r="I29" s="211"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
+      <c r="E29" s="168"/>
+      <c r="F29" s="168"/>
+      <c r="G29" s="168"/>
+      <c r="H29" s="168"/>
+      <c r="I29" s="169"/>
       <c r="J29" s="55"/>
       <c r="K29" s="56">
         <f>J29</f>
@@ -8629,6 +8632,23 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="J24:J26"/>
+    <mergeCell ref="K24:K26"/>
+    <mergeCell ref="L24:L26"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:F28"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="B29:I29"/>
     <mergeCell ref="G23:I23"/>
@@ -8642,23 +8662,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="J24:J26"/>
-    <mergeCell ref="K24:K26"/>
-    <mergeCell ref="L24:L26"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="E26:F26"/>
   </mergeCells>
   <conditionalFormatting sqref="L24 L27:L28 K29 L30:L32">
     <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
